--- a/import_export_for_db.xlsx
+++ b/import_export_for_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Twix\АСР\release_version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDA\Project-for-Strategic-agency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDBF09D-37FB-4440-89B8-34945C4053F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9744E91-8DA9-4323-9347-7D632061C2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="4845" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>import</t>
-  </si>
-  <si>
     <t>Продукция сельского хозяйства, охоты и услуги в этих областях</t>
   </si>
   <si>
@@ -508,6 +505,9 @@
   </si>
   <si>
     <t>export</t>
+  </si>
+  <si>
+    <t>_import</t>
   </si>
 </sst>
 </file>
@@ -854,12 +854,12 @@
   <dimension ref="A1:E469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,18 +870,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>2016</v>
@@ -893,12 +893,12 @@
         <v>238166.97585609599</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3">
         <v>2016</v>
@@ -910,12 +910,12 @@
         <v>1195.5118778399999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4">
         <v>2016</v>
@@ -927,12 +927,12 @@
         <v>392.46647747999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5">
         <v>2016</v>
@@ -941,12 +941,12 @@
         <v>170449.9965974401</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6">
         <v>2016</v>
@@ -958,12 +958,12 @@
         <v>4924629.6606872417</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7">
         <v>2016</v>
@@ -975,12 +975,12 @@
         <v>2097739.21635012</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
       </c>
       <c r="C8">
         <v>2016</v>
@@ -992,12 +992,12 @@
         <v>8526.3601558800001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
       </c>
       <c r="C9">
         <v>2016</v>
@@ -1009,12 +1009,12 @@
         <v>46.856460000000013</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
       </c>
       <c r="C10">
         <v>2016</v>
@@ -1026,12 +1026,12 @@
         <v>594220.87753139948</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
       </c>
       <c r="C11">
         <v>2016</v>
@@ -1043,12 +1043,12 @@
         <v>50181.106153583991</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
       </c>
       <c r="C12">
         <v>2016</v>
@@ -1060,12 +1060,12 @@
         <v>24989.315978760002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
       </c>
       <c r="C13">
         <v>2016</v>
@@ -1077,12 +1077,12 @@
         <v>3510901.9393056189</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
       </c>
       <c r="C14">
         <v>2016</v>
@@ -1094,12 +1094,12 @@
         <v>666280.02490308066</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
       </c>
       <c r="C15">
         <v>2016</v>
@@ -1111,12 +1111,12 @@
         <v>341176.74360504007</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
       </c>
       <c r="C16">
         <v>2016</v>
@@ -1128,12 +1128,12 @@
         <v>11539.812200279999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
       </c>
       <c r="C17">
         <v>2016</v>
@@ -1145,12 +1145,12 @@
         <v>60826.11249372</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
       </c>
       <c r="C18">
         <v>2016</v>
@@ -1162,12 +1162,12 @@
         <v>4895.7891443999997</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
       </c>
       <c r="C19">
         <v>2016</v>
@@ -1179,12 +1179,12 @@
         <v>167079.44339268</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
       </c>
       <c r="C20">
         <v>2016</v>
@@ -1196,12 +1196,12 @@
         <v>1870915.87665275</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
       </c>
       <c r="C21">
         <v>2016</v>
@@ -1213,12 +1213,12 @@
         <v>38999.271491040003</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
       </c>
       <c r="C22">
         <v>2016</v>
@@ -1230,12 +1230,12 @@
         <v>167705.36878905579</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
       </c>
       <c r="C23">
         <v>2016</v>
@@ -1247,12 +1247,12 @@
         <v>426780.32594315993</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
       </c>
       <c r="C24">
         <v>2016</v>
@@ -1264,12 +1264,12 @@
         <v>9965758.7886353265</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
       </c>
       <c r="C25">
         <v>2016</v>
@@ -1281,12 +1281,12 @@
         <v>72870.352259039952</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
       </c>
       <c r="C26">
         <v>2016</v>
@@ -1298,12 +1298,12 @@
         <v>6443.7876291600014</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
       </c>
       <c r="C27">
         <v>2016</v>
@@ -1315,12 +1315,12 @@
         <v>263699.390844204</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
       </c>
       <c r="C28">
         <v>2016</v>
@@ -1332,12 +1332,12 @@
         <v>99945.372068640034</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
       </c>
       <c r="C29">
         <v>2016</v>
@@ -1349,12 +1349,12 @@
         <v>160514.27491176</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
       </c>
       <c r="C30">
         <v>2016</v>
@@ -1366,12 +1366,12 @@
         <v>32008.679314416</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
       </c>
       <c r="C31">
         <v>2016</v>
@@ -1383,12 +1383,12 @@
         <v>3895.310333628001</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
       </c>
       <c r="C32">
         <v>2016</v>
@@ -1400,12 +1400,12 @@
         <v>18466.489580279998</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
       </c>
       <c r="C33">
         <v>2016</v>
@@ -1417,12 +1417,12 @@
         <v>14802.567756312001</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
         <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
       </c>
       <c r="C34">
         <v>2016</v>
@@ -1434,12 +1434,12 @@
         <v>155270.93201466001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
         <v>70</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
       </c>
       <c r="C35">
         <v>2016</v>
@@ -1451,12 +1451,12 @@
         <v>44.513637000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
         <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
       </c>
       <c r="C36">
         <v>2016</v>
@@ -1465,12 +1465,12 @@
         <v>936.51521880000007</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
         <v>74</v>
-      </c>
-      <c r="B37" t="s">
-        <v>75</v>
       </c>
       <c r="C37">
         <v>2016</v>
@@ -1482,12 +1482,12 @@
         <v>25233.23455212</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
         <v>76</v>
-      </c>
-      <c r="B38" t="s">
-        <v>77</v>
       </c>
       <c r="C38">
         <v>2016</v>
@@ -1499,12 +1499,12 @@
         <v>87.544994123999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
         <v>78</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
       </c>
       <c r="C39">
         <v>2016</v>
@@ -1516,12 +1516,12 @@
         <v>249285.23987463611</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
         <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
       </c>
       <c r="C40">
         <v>2016</v>
@@ -1533,12 +1533,12 @@
         <v>5836282.7419585064</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
         <v>82</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
       </c>
       <c r="C41">
         <v>2016</v>
@@ -1550,12 +1550,12 @@
         <v>2928285.4809541209</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
         <v>84</v>
-      </c>
-      <c r="B42" t="s">
-        <v>85</v>
       </c>
       <c r="C42">
         <v>2016</v>
@@ -1567,12 +1567,12 @@
         <v>2483510.0853664088</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
         <v>86</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
       </c>
       <c r="C43">
         <v>2016</v>
@@ -1584,12 +1584,12 @@
         <v>10873.708197324</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
         <v>88</v>
-      </c>
-      <c r="B44" t="s">
-        <v>89</v>
       </c>
       <c r="C44">
         <v>2016</v>
@@ -1601,12 +1601,12 @@
         <v>117890.0839446124</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
         <v>90</v>
-      </c>
-      <c r="B45" t="s">
-        <v>91</v>
       </c>
       <c r="C45">
         <v>2016</v>
@@ -1618,12 +1618,12 @@
         <v>12943.239117059989</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
         <v>92</v>
-      </c>
-      <c r="B46" t="s">
-        <v>93</v>
       </c>
       <c r="C46">
         <v>2016</v>
@@ -1635,12 +1635,12 @@
         <v>939.04546763999997</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
         <v>94</v>
-      </c>
-      <c r="B47" t="s">
-        <v>95</v>
       </c>
       <c r="C47">
         <v>2016</v>
@@ -1652,12 +1652,12 @@
         <v>2.8727857200000009</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" t="s">
-        <v>97</v>
       </c>
       <c r="C48">
         <v>2016</v>
@@ -1669,12 +1669,12 @@
         <v>1050.666926652</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
         <v>98</v>
-      </c>
-      <c r="B49" t="s">
-        <v>99</v>
       </c>
       <c r="C49">
         <v>2016</v>
@@ -1686,12 +1686,12 @@
         <v>457724.89311208809</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
         <v>100</v>
-      </c>
-      <c r="B50" t="s">
-        <v>101</v>
       </c>
       <c r="C50">
         <v>2016</v>
@@ -1703,12 +1703,12 @@
         <v>3619.3642388399999</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
         <v>102</v>
-      </c>
-      <c r="B51" t="s">
-        <v>103</v>
       </c>
       <c r="C51">
         <v>2016</v>
@@ -1720,12 +1720,12 @@
         <v>286.63227599999999</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
         <v>104</v>
-      </c>
-      <c r="B52" t="s">
-        <v>105</v>
       </c>
       <c r="C52">
         <v>2016</v>
@@ -1737,12 +1737,12 @@
         <v>79616.405094996007</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
         <v>106</v>
-      </c>
-      <c r="B53" t="s">
-        <v>107</v>
       </c>
       <c r="C53">
         <v>2016</v>
@@ -1754,12 +1754,12 @@
         <v>17443.794667655999</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
         <v>108</v>
-      </c>
-      <c r="B54" t="s">
-        <v>109</v>
       </c>
       <c r="C54">
         <v>2016</v>
@@ -1771,12 +1771,12 @@
         <v>4116.3606924720016</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
         <v>110</v>
-      </c>
-      <c r="B55" t="s">
-        <v>111</v>
       </c>
       <c r="C55">
         <v>2016</v>
@@ -1788,12 +1788,12 @@
         <v>25323.412556147989</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
         <v>112</v>
-      </c>
-      <c r="B56" t="s">
-        <v>113</v>
       </c>
       <c r="C56">
         <v>2016</v>
@@ -1805,12 +1805,12 @@
         <v>2511.6591050040001</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
         <v>114</v>
-      </c>
-      <c r="B57" t="s">
-        <v>115</v>
       </c>
       <c r="C57">
         <v>2016</v>
@@ -1822,12 +1822,12 @@
         <v>10921.979722415999</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
         <v>116</v>
-      </c>
-      <c r="B58" t="s">
-        <v>117</v>
       </c>
       <c r="C58">
         <v>2016</v>
@@ -1839,12 +1839,12 @@
         <v>83912.795739191963</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
         <v>118</v>
-      </c>
-      <c r="B59" t="s">
-        <v>119</v>
       </c>
       <c r="C59">
         <v>2016</v>
@@ -1856,12 +1856,12 @@
         <v>13684.01551356</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
         <v>120</v>
-      </c>
-      <c r="B60" t="s">
-        <v>121</v>
       </c>
       <c r="C60">
         <v>2016</v>
@@ -1873,12 +1873,12 @@
         <v>2799.4828276800008</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
         <v>122</v>
-      </c>
-      <c r="B61" t="s">
-        <v>123</v>
       </c>
       <c r="C61">
         <v>2016</v>
@@ -1890,12 +1890,12 @@
         <v>5145.6694752120002</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
         <v>124</v>
-      </c>
-      <c r="B62" t="s">
-        <v>125</v>
       </c>
       <c r="C62">
         <v>2016</v>
@@ -1907,12 +1907,12 @@
         <v>294.74329080000001</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
         <v>126</v>
-      </c>
-      <c r="B63" t="s">
-        <v>127</v>
       </c>
       <c r="C63">
         <v>2016</v>
@@ -1924,12 +1924,12 @@
         <v>5120.9211856319998</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
         <v>128</v>
-      </c>
-      <c r="B64" t="s">
-        <v>129</v>
       </c>
       <c r="C64">
         <v>2016</v>
@@ -1941,12 +1941,12 @@
         <v>19918.767103368002</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
         <v>130</v>
-      </c>
-      <c r="B65" t="s">
-        <v>131</v>
       </c>
       <c r="C65">
         <v>2016</v>
@@ -1958,23 +1958,23 @@
         <v>39573.633776795978</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
         <v>132</v>
-      </c>
-      <c r="B66" t="s">
-        <v>133</v>
       </c>
       <c r="C66">
         <v>2016</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
         <v>134</v>
-      </c>
-      <c r="B67" t="s">
-        <v>135</v>
       </c>
       <c r="C67">
         <v>2016</v>
@@ -1986,12 +1986,12 @@
         <v>2646.9427531679999</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s">
         <v>136</v>
-      </c>
-      <c r="B68" t="s">
-        <v>137</v>
       </c>
       <c r="C68">
         <v>2016</v>
@@ -2003,12 +2003,12 @@
         <v>10872.47764974</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
         <v>138</v>
-      </c>
-      <c r="B69" t="s">
-        <v>139</v>
       </c>
       <c r="C69">
         <v>2016</v>
@@ -2020,12 +2020,12 @@
         <v>415837.86574679997</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" t="s">
         <v>140</v>
-      </c>
-      <c r="B70" t="s">
-        <v>141</v>
       </c>
       <c r="C70">
         <v>2016</v>
@@ -2037,12 +2037,12 @@
         <v>8501.5443283680052</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
         <v>142</v>
-      </c>
-      <c r="B71" t="s">
-        <v>143</v>
       </c>
       <c r="C71">
         <v>2016</v>
@@ -2054,12 +2054,12 @@
         <v>5154.9790459439992</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s">
         <v>144</v>
-      </c>
-      <c r="B72" t="s">
-        <v>145</v>
       </c>
       <c r="C72">
         <v>2016</v>
@@ -2071,23 +2071,23 @@
         <v>371.46250377599989</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
         <v>146</v>
-      </c>
-      <c r="B73" t="s">
-        <v>147</v>
       </c>
       <c r="C73">
         <v>2016</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
         <v>148</v>
-      </c>
-      <c r="B74" t="s">
-        <v>149</v>
       </c>
       <c r="C74">
         <v>2016</v>
@@ -2099,12 +2099,12 @@
         <v>35.0938728</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" t="s">
         <v>150</v>
-      </c>
-      <c r="B75" t="s">
-        <v>151</v>
       </c>
       <c r="C75">
         <v>2016</v>
@@ -2116,12 +2116,12 @@
         <v>1175.1632482800001</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" t="s">
         <v>152</v>
-      </c>
-      <c r="B76" t="s">
-        <v>153</v>
       </c>
       <c r="C76">
         <v>2016</v>
@@ -2133,12 +2133,12 @@
         <v>778.61541155999987</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
         <v>154</v>
-      </c>
-      <c r="B77" t="s">
-        <v>155</v>
       </c>
       <c r="C77">
         <v>2016</v>
@@ -2150,12 +2150,12 @@
         <v>1209.7788620399999</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
         <v>156</v>
-      </c>
-      <c r="B78" t="s">
-        <v>157</v>
       </c>
       <c r="C78">
         <v>2016</v>
@@ -2167,12 +2167,12 @@
         <v>11194.38960864</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
         <v>158</v>
-      </c>
-      <c r="B79" t="s">
-        <v>159</v>
       </c>
       <c r="C79">
         <v>2016</v>
@@ -2184,12 +2184,12 @@
         <v>641.52633552000009</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
         <v>4</v>
-      </c>
-      <c r="B80" t="s">
-        <v>5</v>
       </c>
       <c r="C80">
         <v>2017</v>
@@ -2201,12 +2201,12 @@
         <v>761881.12580412033</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
         <v>6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
       </c>
       <c r="C81">
         <v>2017</v>
@@ -2218,12 +2218,12 @@
         <v>188.36938386</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
         <v>8</v>
-      </c>
-      <c r="B82" t="s">
-        <v>9</v>
       </c>
       <c r="C82">
         <v>2017</v>
@@ -2235,12 +2235,12 @@
         <v>1614.01819383</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
         <v>10</v>
-      </c>
-      <c r="B83" t="s">
-        <v>11</v>
       </c>
       <c r="C83">
         <v>2017</v>
@@ -2249,12 +2249,12 @@
         <v>279327.62281598989</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
         <v>12</v>
-      </c>
-      <c r="B84" t="s">
-        <v>13</v>
       </c>
       <c r="C84">
         <v>2017</v>
@@ -2266,12 +2266,12 @@
         <v>201602.9380213799</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
         <v>14</v>
-      </c>
-      <c r="B85" t="s">
-        <v>15</v>
       </c>
       <c r="C85">
         <v>2017</v>
@@ -2283,12 +2283,12 @@
         <v>2936.03867046</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
         <v>16</v>
-      </c>
-      <c r="B86" t="s">
-        <v>17</v>
       </c>
       <c r="C86">
         <v>2017</v>
@@ -2300,12 +2300,12 @@
         <v>36334.113942419986</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
         <v>18</v>
-      </c>
-      <c r="B87" t="s">
-        <v>19</v>
       </c>
       <c r="C87">
         <v>2017</v>
@@ -2317,12 +2317,12 @@
         <v>290.55234474000002</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
         <v>20</v>
-      </c>
-      <c r="B88" t="s">
-        <v>21</v>
       </c>
       <c r="C88">
         <v>2017</v>
@@ -2334,12 +2334,12 @@
         <v>1936955.1405971949</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
         <v>22</v>
-      </c>
-      <c r="B89" t="s">
-        <v>23</v>
       </c>
       <c r="C89">
         <v>2017</v>
@@ -2351,12 +2351,12 @@
         <v>133812.47272585501</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" t="s">
         <v>24</v>
-      </c>
-      <c r="B90" t="s">
-        <v>25</v>
       </c>
       <c r="C90">
         <v>2017</v>
@@ -2368,12 +2368,12 @@
         <v>62170.414627229999</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" t="s">
         <v>26</v>
-      </c>
-      <c r="B91" t="s">
-        <v>27</v>
       </c>
       <c r="C91">
         <v>2017</v>
@@ -2385,12 +2385,12 @@
         <v>8655685.1641323082</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" t="s">
         <v>28</v>
-      </c>
-      <c r="B92" t="s">
-        <v>29</v>
       </c>
       <c r="C92">
         <v>2017</v>
@@ -2402,12 +2402,12 @@
         <v>2099575.2295104298</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" t="s">
         <v>30</v>
-      </c>
-      <c r="B93" t="s">
-        <v>31</v>
       </c>
       <c r="C93">
         <v>2017</v>
@@ -2419,12 +2419,12 @@
         <v>883665.12365712004</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" t="s">
         <v>32</v>
-      </c>
-      <c r="B94" t="s">
-        <v>33</v>
       </c>
       <c r="C94">
         <v>2017</v>
@@ -2436,12 +2436,12 @@
         <v>10058.10334704</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" t="s">
         <v>34</v>
-      </c>
-      <c r="B95" t="s">
-        <v>35</v>
       </c>
       <c r="C95">
         <v>2017</v>
@@ -2453,12 +2453,12 @@
         <v>240499.44561321021</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" t="s">
         <v>36</v>
-      </c>
-      <c r="B96" t="s">
-        <v>37</v>
       </c>
       <c r="C96">
         <v>2017</v>
@@ -2470,12 +2470,12 @@
         <v>50321.015718119997</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" t="s">
         <v>38</v>
-      </c>
-      <c r="B97" t="s">
-        <v>39</v>
       </c>
       <c r="C97">
         <v>2017</v>
@@ -2487,12 +2487,12 @@
         <v>344751.17296724988</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" t="s">
         <v>40</v>
-      </c>
-      <c r="B98" t="s">
-        <v>41</v>
       </c>
       <c r="C98">
         <v>2017</v>
@@ -2504,12 +2504,12 @@
         <v>5420365.5616984973</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" t="s">
         <v>42</v>
-      </c>
-      <c r="B99" t="s">
-        <v>43</v>
       </c>
       <c r="C99">
         <v>2017</v>
@@ -2521,12 +2521,12 @@
         <v>121161.77312904</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" t="s">
         <v>44</v>
-      </c>
-      <c r="B100" t="s">
-        <v>45</v>
       </c>
       <c r="C100">
         <v>2017</v>
@@ -2538,12 +2538,12 @@
         <v>320286.17476311122</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101" t="s">
         <v>46</v>
-      </c>
-      <c r="B101" t="s">
-        <v>47</v>
       </c>
       <c r="C101">
         <v>2017</v>
@@ -2555,12 +2555,12 @@
         <v>1060704.3968285951</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102" t="s">
         <v>48</v>
-      </c>
-      <c r="B102" t="s">
-        <v>49</v>
       </c>
       <c r="C102">
         <v>2017</v>
@@ -2572,12 +2572,12 @@
         <v>8396274.1680578943</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" t="s">
         <v>50</v>
-      </c>
-      <c r="B103" t="s">
-        <v>51</v>
       </c>
       <c r="C103">
         <v>2017</v>
@@ -2589,12 +2589,12 @@
         <v>297771.22501118999</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" t="s">
         <v>52</v>
-      </c>
-      <c r="B104" t="s">
-        <v>53</v>
       </c>
       <c r="C104">
         <v>2017</v>
@@ -2606,12 +2606,12 @@
         <v>15228.67972059</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" t="s">
         <v>54</v>
-      </c>
-      <c r="B105" t="s">
-        <v>55</v>
       </c>
       <c r="C105">
         <v>2017</v>
@@ -2623,12 +2623,12 @@
         <v>988353.27716542163</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" t="s">
         <v>56</v>
-      </c>
-      <c r="B106" t="s">
-        <v>57</v>
       </c>
       <c r="C106">
         <v>2017</v>
@@ -2640,12 +2640,12 @@
         <v>253334.45049884991</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" t="s">
         <v>58</v>
-      </c>
-      <c r="B107" t="s">
-        <v>59</v>
       </c>
       <c r="C107">
         <v>2017</v>
@@ -2657,12 +2657,12 @@
         <v>1232917.005793252</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>59</v>
+      </c>
+      <c r="B108" t="s">
         <v>60</v>
-      </c>
-      <c r="B108" t="s">
-        <v>61</v>
       </c>
       <c r="C108">
         <v>2017</v>
@@ -2674,12 +2674,12 @@
         <v>129296.17505259</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>61</v>
+      </c>
+      <c r="B109" t="s">
         <v>62</v>
-      </c>
-      <c r="B109" t="s">
-        <v>63</v>
       </c>
       <c r="C109">
         <v>2017</v>
@@ -2691,12 +2691,12 @@
         <v>28300.644488970011</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>63</v>
+      </c>
+      <c r="B110" t="s">
         <v>64</v>
-      </c>
-      <c r="B110" t="s">
-        <v>65</v>
       </c>
       <c r="C110">
         <v>2017</v>
@@ -2708,12 +2708,12 @@
         <v>52122.891731400043</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>65</v>
+      </c>
+      <c r="B111" t="s">
         <v>66</v>
-      </c>
-      <c r="B111" t="s">
-        <v>67</v>
       </c>
       <c r="C111">
         <v>2017</v>
@@ -2725,12 +2725,12 @@
         <v>12764.229543513</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>67</v>
+      </c>
+      <c r="B112" t="s">
         <v>68</v>
-      </c>
-      <c r="B112" t="s">
-        <v>69</v>
       </c>
       <c r="C112">
         <v>2017</v>
@@ -2742,12 +2742,12 @@
         <v>20686.03017030899</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" t="s">
         <v>70</v>
-      </c>
-      <c r="B113" t="s">
-        <v>71</v>
       </c>
       <c r="C113">
         <v>2017</v>
@@ -2759,12 +2759,12 @@
         <v>1965.207973302</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>71</v>
+      </c>
+      <c r="B114" t="s">
         <v>72</v>
-      </c>
-      <c r="B114" t="s">
-        <v>73</v>
       </c>
       <c r="C114">
         <v>2017</v>
@@ -2773,12 +2773,12 @@
         <v>1993.41222444</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>73</v>
+      </c>
+      <c r="B115" t="s">
         <v>74</v>
-      </c>
-      <c r="B115" t="s">
-        <v>75</v>
       </c>
       <c r="C115">
         <v>2017</v>
@@ -2790,12 +2790,12 @@
         <v>81399.23571149999</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>75</v>
+      </c>
+      <c r="B116" t="s">
         <v>76</v>
-      </c>
-      <c r="B116" t="s">
-        <v>77</v>
       </c>
       <c r="C116">
         <v>2017</v>
@@ -2804,12 +2804,12 @@
         <v>916.04945690999978</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>77</v>
+      </c>
+      <c r="B117" t="s">
         <v>78</v>
-      </c>
-      <c r="B117" t="s">
-        <v>79</v>
       </c>
       <c r="C117">
         <v>2017</v>
@@ -2821,12 +2821,12 @@
         <v>327886.9430632111</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>79</v>
+      </c>
+      <c r="B118" t="s">
         <v>80</v>
-      </c>
-      <c r="B118" t="s">
-        <v>81</v>
       </c>
       <c r="C118">
         <v>2017</v>
@@ -2838,12 +2838,12 @@
         <v>10086373.737122569</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>81</v>
+      </c>
+      <c r="B119" t="s">
         <v>82</v>
-      </c>
-      <c r="B119" t="s">
-        <v>83</v>
       </c>
       <c r="C119">
         <v>2017</v>
@@ -2855,12 +2855,12 @@
         <v>19149504.121144962</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120" t="s">
         <v>84</v>
-      </c>
-      <c r="B120" t="s">
-        <v>85</v>
       </c>
       <c r="C120">
         <v>2017</v>
@@ -2872,12 +2872,12 @@
         <v>6153017.3441117089</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>85</v>
+      </c>
+      <c r="B121" t="s">
         <v>86</v>
-      </c>
-      <c r="B121" t="s">
-        <v>87</v>
       </c>
       <c r="C121">
         <v>2017</v>
@@ -2889,12 +2889,12 @@
         <v>29977.969184541002</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>87</v>
+      </c>
+      <c r="B122" t="s">
         <v>88</v>
-      </c>
-      <c r="B122" t="s">
-        <v>89</v>
       </c>
       <c r="C122">
         <v>2017</v>
@@ -2906,12 +2906,12 @@
         <v>265617.35802107141</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>89</v>
+      </c>
+      <c r="B123" t="s">
         <v>90</v>
-      </c>
-      <c r="B123" t="s">
-        <v>91</v>
       </c>
       <c r="C123">
         <v>2017</v>
@@ -2923,12 +2923,12 @@
         <v>19289.413858617001</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
+        <v>91</v>
+      </c>
+      <c r="B124" t="s">
         <v>92</v>
-      </c>
-      <c r="B124" t="s">
-        <v>93</v>
       </c>
       <c r="C124">
         <v>2017</v>
@@ -2940,12 +2940,12 @@
         <v>1810.7756099999999</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>93</v>
+      </c>
+      <c r="B125" t="s">
         <v>94</v>
-      </c>
-      <c r="B125" t="s">
-        <v>95</v>
       </c>
       <c r="C125">
         <v>2017</v>
@@ -2957,12 +2957,12 @@
         <v>652.93482869999991</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>95</v>
+      </c>
+      <c r="B126" t="s">
         <v>96</v>
-      </c>
-      <c r="B126" t="s">
-        <v>97</v>
       </c>
       <c r="C126">
         <v>2017</v>
@@ -2974,12 +2974,12 @@
         <v>2785.3309832670002</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>97</v>
+      </c>
+      <c r="B127" t="s">
         <v>98</v>
-      </c>
-      <c r="B127" t="s">
-        <v>99</v>
       </c>
       <c r="C127">
         <v>2017</v>
@@ -2991,12 +2991,12 @@
         <v>1177610.359257926</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
+        <v>99</v>
+      </c>
+      <c r="B128" t="s">
         <v>100</v>
-      </c>
-      <c r="B128" t="s">
-        <v>101</v>
       </c>
       <c r="C128">
         <v>2017</v>
@@ -3008,12 +3008,12 @@
         <v>41870.000897172024</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
+        <v>101</v>
+      </c>
+      <c r="B129" t="s">
         <v>102</v>
-      </c>
-      <c r="B129" t="s">
-        <v>103</v>
       </c>
       <c r="C129">
         <v>2017</v>
@@ -3025,12 +3025,12 @@
         <v>4020.7777095780002</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
+        <v>103</v>
+      </c>
+      <c r="B130" t="s">
         <v>104</v>
-      </c>
-      <c r="B130" t="s">
-        <v>105</v>
       </c>
       <c r="C130">
         <v>2017</v>
@@ -3042,12 +3042,12 @@
         <v>238341.39003744299</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>105</v>
+      </c>
+      <c r="B131" t="s">
         <v>106</v>
-      </c>
-      <c r="B131" t="s">
-        <v>107</v>
       </c>
       <c r="C131">
         <v>2017</v>
@@ -3059,12 +3059,12 @@
         <v>36450.738447795004</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>107</v>
+      </c>
+      <c r="B132" t="s">
         <v>108</v>
-      </c>
-      <c r="B132" t="s">
-        <v>109</v>
       </c>
       <c r="C132">
         <v>2017</v>
@@ -3076,12 +3076,12 @@
         <v>15456.305582864999</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>109</v>
+      </c>
+      <c r="B133" t="s">
         <v>110</v>
-      </c>
-      <c r="B133" t="s">
-        <v>111</v>
       </c>
       <c r="C133">
         <v>2017</v>
@@ -3093,12 +3093,12 @@
         <v>137855.58306395399</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>111</v>
+      </c>
+      <c r="B134" t="s">
         <v>112</v>
-      </c>
-      <c r="B134" t="s">
-        <v>113</v>
       </c>
       <c r="C134">
         <v>2017</v>
@@ -3110,12 +3110,12 @@
         <v>6619.2537020399977</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>113</v>
+      </c>
+      <c r="B135" t="s">
         <v>114</v>
-      </c>
-      <c r="B135" t="s">
-        <v>115</v>
       </c>
       <c r="C135">
         <v>2017</v>
@@ -3127,12 +3127,12 @@
         <v>69284.667796469992</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>115</v>
+      </c>
+      <c r="B136" t="s">
         <v>116</v>
-      </c>
-      <c r="B136" t="s">
-        <v>117</v>
       </c>
       <c r="C136">
         <v>2017</v>
@@ -3144,12 +3144,12 @@
         <v>178270.94162921389</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137" t="s">
         <v>118</v>
-      </c>
-      <c r="B137" t="s">
-        <v>119</v>
       </c>
       <c r="C137">
         <v>2017</v>
@@ -3161,12 +3161,12 @@
         <v>31851.41793082199</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138" t="s">
         <v>120</v>
-      </c>
-      <c r="B138" t="s">
-        <v>121</v>
       </c>
       <c r="C138">
         <v>2017</v>
@@ -3178,12 +3178,12 @@
         <v>41712.652616733001</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>121</v>
+      </c>
+      <c r="B139" t="s">
         <v>122</v>
-      </c>
-      <c r="B139" t="s">
-        <v>123</v>
       </c>
       <c r="C139">
         <v>2017</v>
@@ -3195,23 +3195,23 @@
         <v>9692.9762794199996</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>123</v>
+      </c>
+      <c r="B140" t="s">
         <v>124</v>
-      </c>
-      <c r="B140" t="s">
-        <v>125</v>
       </c>
       <c r="C140">
         <v>2017</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>125</v>
+      </c>
+      <c r="B141" t="s">
         <v>126</v>
-      </c>
-      <c r="B141" t="s">
-        <v>127</v>
       </c>
       <c r="C141">
         <v>2017</v>
@@ -3223,12 +3223,12 @@
         <v>142722.56463633</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>127</v>
+      </c>
+      <c r="B142" t="s">
         <v>128</v>
-      </c>
-      <c r="B142" t="s">
-        <v>129</v>
       </c>
       <c r="C142">
         <v>2017</v>
@@ -3240,12 +3240,12 @@
         <v>10359.878440527</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>129</v>
+      </c>
+      <c r="B143" t="s">
         <v>130</v>
-      </c>
-      <c r="B143" t="s">
-        <v>131</v>
       </c>
       <c r="C143">
         <v>2017</v>
@@ -3257,12 +3257,12 @@
         <v>101890.4109980401</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>131</v>
+      </c>
+      <c r="B144" t="s">
         <v>132</v>
-      </c>
-      <c r="B144" t="s">
-        <v>133</v>
       </c>
       <c r="C144">
         <v>2017</v>
@@ -3271,12 +3271,12 @@
         <v>6662.7853973099991</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>133</v>
+      </c>
+      <c r="B145" t="s">
         <v>134</v>
-      </c>
-      <c r="B145" t="s">
-        <v>135</v>
       </c>
       <c r="C145">
         <v>2017</v>
@@ -3288,12 +3288,12 @@
         <v>4984.864688601001</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
+        <v>135</v>
+      </c>
+      <c r="B146" t="s">
         <v>136</v>
-      </c>
-      <c r="B146" t="s">
-        <v>137</v>
       </c>
       <c r="C146">
         <v>2017</v>
@@ -3305,12 +3305,12 @@
         <v>34333.467547617001</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147" t="s">
         <v>138</v>
-      </c>
-      <c r="B147" t="s">
-        <v>139</v>
       </c>
       <c r="C147">
         <v>2017</v>
@@ -3322,12 +3322,12 @@
         <v>1198829.796014528</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
+        <v>139</v>
+      </c>
+      <c r="B148" t="s">
         <v>140</v>
-      </c>
-      <c r="B148" t="s">
-        <v>141</v>
       </c>
       <c r="C148">
         <v>2017</v>
@@ -3339,12 +3339,12 @@
         <v>24412.480514603991</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>141</v>
+      </c>
+      <c r="B149" t="s">
         <v>142</v>
-      </c>
-      <c r="B149" t="s">
-        <v>143</v>
       </c>
       <c r="C149">
         <v>2017</v>
@@ -3356,12 +3356,12 @@
         <v>9175.6596118320158</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
+        <v>143</v>
+      </c>
+      <c r="B150" t="s">
         <v>144</v>
-      </c>
-      <c r="B150" t="s">
-        <v>145</v>
       </c>
       <c r="C150">
         <v>2017</v>
@@ -3370,12 +3370,12 @@
         <v>908.32727033999993</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
+        <v>145</v>
+      </c>
+      <c r="B151" t="s">
         <v>146</v>
-      </c>
-      <c r="B151" t="s">
-        <v>147</v>
       </c>
       <c r="C151">
         <v>2017</v>
@@ -3384,12 +3384,12 @@
         <v>17.506870920000001</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>147</v>
+      </c>
+      <c r="B152" t="s">
         <v>148</v>
-      </c>
-      <c r="B152" t="s">
-        <v>149</v>
       </c>
       <c r="C152">
         <v>2017</v>
@@ -3401,12 +3401,12 @@
         <v>443.42890262999998</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" t="s">
         <v>150</v>
-      </c>
-      <c r="B153" t="s">
-        <v>151</v>
       </c>
       <c r="C153">
         <v>2017</v>
@@ -3418,12 +3418,12 @@
         <v>3646.3872661019991</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154" t="s">
         <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>153</v>
       </c>
       <c r="C154">
         <v>2017</v>
@@ -3435,12 +3435,12 @@
         <v>155.69016214499999</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
         <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>155</v>
       </c>
       <c r="C155">
         <v>2017</v>
@@ -3452,12 +3452,12 @@
         <v>46.503640889999978</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
         <v>156</v>
-      </c>
-      <c r="B156" t="s">
-        <v>157</v>
       </c>
       <c r="C156">
         <v>2017</v>
@@ -3469,12 +3469,12 @@
         <v>3181.5165066300001</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
         <v>158</v>
-      </c>
-      <c r="B157" t="s">
-        <v>159</v>
       </c>
       <c r="C157">
         <v>2017</v>
@@ -3486,12 +3486,12 @@
         <v>2150.0402546699988</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
         <v>4</v>
-      </c>
-      <c r="B158" t="s">
-        <v>5</v>
       </c>
       <c r="C158">
         <v>2018</v>
@@ -3503,12 +3503,12 @@
         <v>1596506.681164952</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
         <v>6</v>
-      </c>
-      <c r="B159" t="s">
-        <v>7</v>
       </c>
       <c r="C159">
         <v>2018</v>
@@ -3520,12 +3520,12 @@
         <v>1220.55151935</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
         <v>8</v>
-      </c>
-      <c r="B160" t="s">
-        <v>9</v>
       </c>
       <c r="C160">
         <v>2018</v>
@@ -3537,12 +3537,12 @@
         <v>8124.21447945</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" t="s">
         <v>10</v>
-      </c>
-      <c r="B161" t="s">
-        <v>11</v>
       </c>
       <c r="C161">
         <v>2018</v>
@@ -3551,12 +3551,12 @@
         <v>14231.40037725</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" t="s">
         <v>12</v>
-      </c>
-      <c r="B162" t="s">
-        <v>13</v>
       </c>
       <c r="C162">
         <v>2018</v>
@@ -3568,12 +3568,12 @@
         <v>182568.35279804989</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" t="s">
         <v>14</v>
-      </c>
-      <c r="B163" t="s">
-        <v>15</v>
       </c>
       <c r="C163">
         <v>2018</v>
@@ -3582,12 +3582,12 @@
         <v>63.797557500000003</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" t="s">
         <v>16</v>
-      </c>
-      <c r="B164" t="s">
-        <v>17</v>
       </c>
       <c r="C164">
         <v>2018</v>
@@ -3599,12 +3599,12 @@
         <v>26507.891646099</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
+        <v>17</v>
+      </c>
+      <c r="B165" t="s">
         <v>18</v>
-      </c>
-      <c r="B165" t="s">
-        <v>19</v>
       </c>
       <c r="C165">
         <v>2018</v>
@@ -3616,12 +3616,12 @@
         <v>3990.1327534500001</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" t="s">
         <v>20</v>
-      </c>
-      <c r="B166" t="s">
-        <v>21</v>
       </c>
       <c r="C166">
         <v>2018</v>
@@ -3633,12 +3633,12 @@
         <v>2075215.788615088</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" t="s">
         <v>22</v>
-      </c>
-      <c r="B167" t="s">
-        <v>23</v>
       </c>
       <c r="C167">
         <v>2018</v>
@@ -3650,12 +3650,12 @@
         <v>134458.6814037</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
+        <v>23</v>
+      </c>
+      <c r="B168" t="s">
         <v>24</v>
-      </c>
-      <c r="B168" t="s">
-        <v>25</v>
       </c>
       <c r="C168">
         <v>2018</v>
@@ -3667,12 +3667,12 @@
         <v>75887.394795449989</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>25</v>
+      </c>
+      <c r="B169" t="s">
         <v>26</v>
-      </c>
-      <c r="B169" t="s">
-        <v>27</v>
       </c>
       <c r="C169">
         <v>2018</v>
@@ -3684,12 +3684,12 @@
         <v>9104476.406222593</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
+        <v>27</v>
+      </c>
+      <c r="B170" t="s">
         <v>28</v>
-      </c>
-      <c r="B170" t="s">
-        <v>29</v>
       </c>
       <c r="C170">
         <v>2018</v>
@@ -3701,12 +3701,12 @@
         <v>2340912.8858952038</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
+        <v>29</v>
+      </c>
+      <c r="B171" t="s">
         <v>30</v>
-      </c>
-      <c r="B171" t="s">
-        <v>31</v>
       </c>
       <c r="C171">
         <v>2018</v>
@@ -3718,12 +3718,12 @@
         <v>1127042.255106149</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
+        <v>31</v>
+      </c>
+      <c r="B172" t="s">
         <v>32</v>
-      </c>
-      <c r="B172" t="s">
-        <v>33</v>
       </c>
       <c r="C172">
         <v>2018</v>
@@ -3735,12 +3735,12 @@
         <v>126911.43035145001</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
+        <v>33</v>
+      </c>
+      <c r="B173" t="s">
         <v>34</v>
-      </c>
-      <c r="B173" t="s">
-        <v>35</v>
       </c>
       <c r="C173">
         <v>2018</v>
@@ -3752,12 +3752,12 @@
         <v>270503.1615980998</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
+        <v>35</v>
+      </c>
+      <c r="B174" t="s">
         <v>36</v>
-      </c>
-      <c r="B174" t="s">
-        <v>37</v>
       </c>
       <c r="C174">
         <v>2018</v>
@@ -3769,12 +3769,12 @@
         <v>66929.417125649998</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
+        <v>37</v>
+      </c>
+      <c r="B175" t="s">
         <v>38</v>
-      </c>
-      <c r="B175" t="s">
-        <v>39</v>
       </c>
       <c r="C175">
         <v>2018</v>
@@ -3786,12 +3786,12 @@
         <v>287390.74200854992</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
+        <v>39</v>
+      </c>
+      <c r="B176" t="s">
         <v>40</v>
-      </c>
-      <c r="B176" t="s">
-        <v>41</v>
       </c>
       <c r="C176">
         <v>2018</v>
@@ -3803,12 +3803,12 @@
         <v>4635547.498934241</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
+        <v>41</v>
+      </c>
+      <c r="B177" t="s">
         <v>42</v>
-      </c>
-      <c r="B177" t="s">
-        <v>43</v>
       </c>
       <c r="C177">
         <v>2018</v>
@@ -3820,12 +3820,12 @@
         <v>167254.83743145</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>43</v>
+      </c>
+      <c r="B178" t="s">
         <v>44</v>
-      </c>
-      <c r="B178" t="s">
-        <v>45</v>
       </c>
       <c r="C178">
         <v>2018</v>
@@ -3837,12 +3837,12 @@
         <v>172506.00187995011</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
+        <v>45</v>
+      </c>
+      <c r="B179" t="s">
         <v>46</v>
-      </c>
-      <c r="B179" t="s">
-        <v>47</v>
       </c>
       <c r="C179">
         <v>2018</v>
@@ -3854,12 +3854,12 @@
         <v>419908.4723754744</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>47</v>
+      </c>
+      <c r="B180" t="s">
         <v>48</v>
-      </c>
-      <c r="B180" t="s">
-        <v>49</v>
       </c>
       <c r="C180">
         <v>2018</v>
@@ -3871,12 +3871,12 @@
         <v>11358026.422332831</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B181" t="s">
         <v>50</v>
-      </c>
-      <c r="B181" t="s">
-        <v>51</v>
       </c>
       <c r="C181">
         <v>2018</v>
@@ -3888,12 +3888,12 @@
         <v>154824.7423262251</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
+        <v>51</v>
+      </c>
+      <c r="B182" t="s">
         <v>52</v>
-      </c>
-      <c r="B182" t="s">
-        <v>53</v>
       </c>
       <c r="C182">
         <v>2018</v>
@@ -3905,12 +3905,12 @@
         <v>127602.9708561</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
+        <v>53</v>
+      </c>
+      <c r="B183" t="s">
         <v>54</v>
-      </c>
-      <c r="B183" t="s">
-        <v>55</v>
       </c>
       <c r="C183">
         <v>2018</v>
@@ -3922,12 +3922,12 @@
         <v>674785.35379168461</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
+        <v>55</v>
+      </c>
+      <c r="B184" t="s">
         <v>56</v>
-      </c>
-      <c r="B184" t="s">
-        <v>57</v>
       </c>
       <c r="C184">
         <v>2018</v>
@@ -3939,12 +3939,12 @@
         <v>124747.52561519999</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
+        <v>57</v>
+      </c>
+      <c r="B185" t="s">
         <v>58</v>
-      </c>
-      <c r="B185" t="s">
-        <v>59</v>
       </c>
       <c r="C185">
         <v>2018</v>
@@ -3956,12 +3956,12 @@
         <v>461508.58292407449</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
+        <v>59</v>
+      </c>
+      <c r="B186" t="s">
         <v>60</v>
-      </c>
-      <c r="B186" t="s">
-        <v>61</v>
       </c>
       <c r="C186">
         <v>2018</v>
@@ -3973,12 +3973,12 @@
         <v>81912.085864649998</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
+        <v>61</v>
+      </c>
+      <c r="B187" t="s">
         <v>62</v>
-      </c>
-      <c r="B187" t="s">
-        <v>63</v>
       </c>
       <c r="C187">
         <v>2018</v>
@@ -3990,12 +3990,12 @@
         <v>12784.254944849999</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
+        <v>63</v>
+      </c>
+      <c r="B188" t="s">
         <v>64</v>
-      </c>
-      <c r="B188" t="s">
-        <v>65</v>
       </c>
       <c r="C188">
         <v>2018</v>
@@ -4007,12 +4007,12 @@
         <v>67504.270646699995</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>65</v>
+      </c>
+      <c r="B189" t="s">
         <v>66</v>
-      </c>
-      <c r="B189" t="s">
-        <v>67</v>
       </c>
       <c r="C189">
         <v>2018</v>
@@ -4024,12 +4024,12 @@
         <v>49475.65799406002</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
+        <v>67</v>
+      </c>
+      <c r="B190" t="s">
         <v>68</v>
-      </c>
-      <c r="B190" t="s">
-        <v>69</v>
       </c>
       <c r="C190">
         <v>2018</v>
@@ -4041,12 +4041,12 @@
         <v>88197.005919960022</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
+        <v>69</v>
+      </c>
+      <c r="B191" t="s">
         <v>70</v>
-      </c>
-      <c r="B191" t="s">
-        <v>71</v>
       </c>
       <c r="C191">
         <v>2018</v>
@@ -4058,12 +4058,12 @@
         <v>2.2383352199999988</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
+        <v>71</v>
+      </c>
+      <c r="B192" t="s">
         <v>72</v>
-      </c>
-      <c r="B192" t="s">
-        <v>73</v>
       </c>
       <c r="C192">
         <v>2018</v>
@@ -4072,12 +4072,12 @@
         <v>594.51817994999999</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
+        <v>73</v>
+      </c>
+      <c r="B193" t="s">
         <v>74</v>
-      </c>
-      <c r="B193" t="s">
-        <v>75</v>
       </c>
       <c r="C193">
         <v>2018</v>
@@ -4089,12 +4089,12 @@
         <v>169196.21962295991</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
+        <v>75</v>
+      </c>
+      <c r="B194" t="s">
         <v>76</v>
-      </c>
-      <c r="B194" t="s">
-        <v>77</v>
       </c>
       <c r="C194">
         <v>2018</v>
@@ -4106,12 +4106,12 @@
         <v>6.9968824499999993</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
+        <v>77</v>
+      </c>
+      <c r="B195" t="s">
         <v>78</v>
-      </c>
-      <c r="B195" t="s">
-        <v>79</v>
       </c>
       <c r="C195">
         <v>2018</v>
@@ -4123,12 +4123,12 @@
         <v>295677.52767570008</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
+        <v>79</v>
+      </c>
+      <c r="B196" t="s">
         <v>80</v>
-      </c>
-      <c r="B196" t="s">
-        <v>81</v>
       </c>
       <c r="C196">
         <v>2018</v>
@@ -4140,12 +4140,12 @@
         <v>32214761.735922311</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
+        <v>81</v>
+      </c>
+      <c r="B197" t="s">
         <v>82</v>
-      </c>
-      <c r="B197" t="s">
-        <v>83</v>
       </c>
       <c r="C197">
         <v>2018</v>
@@ -4157,12 +4157,12 @@
         <v>28859401.340487089</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
+        <v>83</v>
+      </c>
+      <c r="B198" t="s">
         <v>84</v>
-      </c>
-      <c r="B198" t="s">
-        <v>85</v>
       </c>
       <c r="C198">
         <v>2018</v>
@@ -4174,12 +4174,12 @@
         <v>6179773.4352369122</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
+        <v>85</v>
+      </c>
+      <c r="B199" t="s">
         <v>86</v>
-      </c>
-      <c r="B199" t="s">
-        <v>87</v>
       </c>
       <c r="C199">
         <v>2018</v>
@@ -4191,12 +4191,12 @@
         <v>34360.074341115003</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
+        <v>87</v>
+      </c>
+      <c r="B200" t="s">
         <v>88</v>
-      </c>
-      <c r="B200" t="s">
-        <v>89</v>
       </c>
       <c r="C200">
         <v>2018</v>
@@ -4208,12 +4208,12 @@
         <v>364541.51524841861</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
+        <v>89</v>
+      </c>
+      <c r="B201" t="s">
         <v>90</v>
-      </c>
-      <c r="B201" t="s">
-        <v>91</v>
       </c>
       <c r="C201">
         <v>2018</v>
@@ -4225,12 +4225,12 @@
         <v>40610.997386894996</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
+        <v>91</v>
+      </c>
+      <c r="B202" t="s">
         <v>92</v>
-      </c>
-      <c r="B202" t="s">
-        <v>93</v>
       </c>
       <c r="C202">
         <v>2018</v>
@@ -4242,12 +4242,12 @@
         <v>166.89858019499999</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
+        <v>93</v>
+      </c>
+      <c r="B203" t="s">
         <v>94</v>
-      </c>
-      <c r="B203" t="s">
-        <v>95</v>
       </c>
       <c r="C203">
         <v>2018</v>
@@ -4256,12 +4256,12 @@
         <v>2447.0407983</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
+        <v>95</v>
+      </c>
+      <c r="B204" t="s">
         <v>96</v>
-      </c>
-      <c r="B204" t="s">
-        <v>97</v>
       </c>
       <c r="C204">
         <v>2018</v>
@@ -4273,12 +4273,12 @@
         <v>2835.0658825649998</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
+        <v>97</v>
+      </c>
+      <c r="B205" t="s">
         <v>98</v>
-      </c>
-      <c r="B205" t="s">
-        <v>99</v>
       </c>
       <c r="C205">
         <v>2018</v>
@@ -4290,12 +4290,12 @@
         <v>1265559.4285546499</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
+        <v>99</v>
+      </c>
+      <c r="B206" t="s">
         <v>100</v>
-      </c>
-      <c r="B206" t="s">
-        <v>101</v>
       </c>
       <c r="C206">
         <v>2018</v>
@@ -4307,12 +4307,12 @@
         <v>54705.11209204499</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
+        <v>101</v>
+      </c>
+      <c r="B207" t="s">
         <v>102</v>
-      </c>
-      <c r="B207" t="s">
-        <v>103</v>
       </c>
       <c r="C207">
         <v>2018</v>
@@ -4324,12 +4324,12 @@
         <v>700.68065145000003</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
+        <v>103</v>
+      </c>
+      <c r="B208" t="s">
         <v>104</v>
-      </c>
-      <c r="B208" t="s">
-        <v>105</v>
       </c>
       <c r="C208">
         <v>2018</v>
@@ -4341,12 +4341,12 @@
         <v>277171.12385654968</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
+        <v>105</v>
+      </c>
+      <c r="B209" t="s">
         <v>106</v>
-      </c>
-      <c r="B209" t="s">
-        <v>107</v>
       </c>
       <c r="C209">
         <v>2018</v>
@@ -4358,12 +4358,12 @@
         <v>46679.531972309996</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
+        <v>107</v>
+      </c>
+      <c r="B210" t="s">
         <v>108</v>
-      </c>
-      <c r="B210" t="s">
-        <v>109</v>
       </c>
       <c r="C210">
         <v>2018</v>
@@ -4375,12 +4375,12 @@
         <v>2084.66566797</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
+        <v>109</v>
+      </c>
+      <c r="B211" t="s">
         <v>110</v>
-      </c>
-      <c r="B211" t="s">
-        <v>111</v>
       </c>
       <c r="C211">
         <v>2018</v>
@@ -4392,12 +4392,12 @@
         <v>71773.232084625008</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
+        <v>111</v>
+      </c>
+      <c r="B212" t="s">
         <v>112</v>
-      </c>
-      <c r="B212" t="s">
-        <v>113</v>
       </c>
       <c r="C212">
         <v>2018</v>
@@ -4409,12 +4409,12 @@
         <v>13961.18227815</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
+        <v>113</v>
+      </c>
+      <c r="B213" t="s">
         <v>114</v>
-      </c>
-      <c r="B213" t="s">
-        <v>115</v>
       </c>
       <c r="C213">
         <v>2018</v>
@@ -4426,12 +4426,12 @@
         <v>212694.78953317509</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
+        <v>115</v>
+      </c>
+      <c r="B214" t="s">
         <v>116</v>
-      </c>
-      <c r="B214" t="s">
-        <v>117</v>
       </c>
       <c r="C214">
         <v>2018</v>
@@ -4443,12 +4443,12 @@
         <v>234676.50233353491</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
+        <v>117</v>
+      </c>
+      <c r="B215" t="s">
         <v>118</v>
-      </c>
-      <c r="B215" t="s">
-        <v>119</v>
       </c>
       <c r="C215">
         <v>2018</v>
@@ -4460,12 +4460,12 @@
         <v>26717.509737960001</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
+        <v>119</v>
+      </c>
+      <c r="B216" t="s">
         <v>120</v>
-      </c>
-      <c r="B216" t="s">
-        <v>121</v>
       </c>
       <c r="C216">
         <v>2018</v>
@@ -4477,12 +4477,12 @@
         <v>57961.270208579983</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
+        <v>121</v>
+      </c>
+      <c r="B217" t="s">
         <v>122</v>
-      </c>
-      <c r="B217" t="s">
-        <v>123</v>
       </c>
       <c r="C217">
         <v>2018</v>
@@ -4494,12 +4494,12 @@
         <v>8579.9125100999991</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
+        <v>123</v>
+      </c>
+      <c r="B218" t="s">
         <v>124</v>
-      </c>
-      <c r="B218" t="s">
-        <v>125</v>
       </c>
       <c r="C218">
         <v>2018</v>
@@ -4508,12 +4508,12 @@
         <v>4434.3388841999986</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
+        <v>125</v>
+      </c>
+      <c r="B219" t="s">
         <v>126</v>
-      </c>
-      <c r="B219" t="s">
-        <v>127</v>
       </c>
       <c r="C219">
         <v>2018</v>
@@ -4525,12 +4525,12 @@
         <v>77069.017295400001</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
+        <v>127</v>
+      </c>
+      <c r="B220" t="s">
         <v>128</v>
-      </c>
-      <c r="B220" t="s">
-        <v>129</v>
       </c>
       <c r="C220">
         <v>2018</v>
@@ -4542,12 +4542,12 @@
         <v>7952.5031449499984</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
+        <v>129</v>
+      </c>
+      <c r="B221" t="s">
         <v>130</v>
-      </c>
-      <c r="B221" t="s">
-        <v>131</v>
       </c>
       <c r="C221">
         <v>2018</v>
@@ -4559,12 +4559,12 @@
         <v>222770.80146812979</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
+        <v>131</v>
+      </c>
+      <c r="B222" t="s">
         <v>132</v>
-      </c>
-      <c r="B222" t="s">
-        <v>133</v>
       </c>
       <c r="C222">
         <v>2018</v>
@@ -4573,12 +4573,12 @@
         <v>7816.1515024499986</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
+        <v>133</v>
+      </c>
+      <c r="B223" t="s">
         <v>134</v>
-      </c>
-      <c r="B223" t="s">
-        <v>135</v>
       </c>
       <c r="C223">
         <v>2018</v>
@@ -4590,12 +4590,12 @@
         <v>4073.1779923499998</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
+        <v>135</v>
+      </c>
+      <c r="B224" t="s">
         <v>136</v>
-      </c>
-      <c r="B224" t="s">
-        <v>137</v>
       </c>
       <c r="C224">
         <v>2018</v>
@@ -4607,12 +4607,12 @@
         <v>84091.450458690058</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
+        <v>137</v>
+      </c>
+      <c r="B225" t="s">
         <v>138</v>
-      </c>
-      <c r="B225" t="s">
-        <v>139</v>
       </c>
       <c r="C225">
         <v>2018</v>
@@ -4624,12 +4624,12 @@
         <v>1628649.90380082</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
+        <v>139</v>
+      </c>
+      <c r="B226" t="s">
         <v>140</v>
-      </c>
-      <c r="B226" t="s">
-        <v>141</v>
       </c>
       <c r="C226">
         <v>2018</v>
@@ -4641,12 +4641,12 @@
         <v>52392.137899545</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
+        <v>141</v>
+      </c>
+      <c r="B227" t="s">
         <v>142</v>
-      </c>
-      <c r="B227" t="s">
-        <v>143</v>
       </c>
       <c r="C227">
         <v>2018</v>
@@ -4658,12 +4658,12 @@
         <v>9683.6177604449967</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
+        <v>143</v>
+      </c>
+      <c r="B228" t="s">
         <v>144</v>
-      </c>
-      <c r="B228" t="s">
-        <v>145</v>
       </c>
       <c r="C228">
         <v>2018</v>
@@ -4675,12 +4675,12 @@
         <v>79.892888999999997</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
+        <v>145</v>
+      </c>
+      <c r="B229" t="s">
         <v>146</v>
-      </c>
-      <c r="B229" t="s">
-        <v>147</v>
       </c>
       <c r="C229">
         <v>2018</v>
@@ -4689,12 +4689,12 @@
         <v>1875.564795</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
+        <v>147</v>
+      </c>
+      <c r="B230" t="s">
         <v>148</v>
-      </c>
-      <c r="B230" t="s">
-        <v>149</v>
       </c>
       <c r="C230">
         <v>2018</v>
@@ -4703,12 +4703,12 @@
         <v>4322.4971791500002</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
+        <v>149</v>
+      </c>
+      <c r="B231" t="s">
         <v>150</v>
-      </c>
-      <c r="B231" t="s">
-        <v>151</v>
       </c>
       <c r="C231">
         <v>2018</v>
@@ -4720,12 +4720,12 @@
         <v>4148.392393799998</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
+        <v>151</v>
+      </c>
+      <c r="B232" t="s">
         <v>152</v>
-      </c>
-      <c r="B232" t="s">
-        <v>153</v>
       </c>
       <c r="C232">
         <v>2018</v>
@@ -4737,12 +4737,12 @@
         <v>1992.4043923649999</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
+        <v>153</v>
+      </c>
+      <c r="B233" t="s">
         <v>154</v>
-      </c>
-      <c r="B233" t="s">
-        <v>155</v>
       </c>
       <c r="C233">
         <v>2018</v>
@@ -4754,12 +4754,12 @@
         <v>122.5747059</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
+        <v>155</v>
+      </c>
+      <c r="B234" t="s">
         <v>156</v>
-      </c>
-      <c r="B234" t="s">
-        <v>157</v>
       </c>
       <c r="C234">
         <v>2018</v>
@@ -4771,12 +4771,12 @@
         <v>3973.0283364000002</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
+        <v>157</v>
+      </c>
+      <c r="B235" t="s">
         <v>158</v>
-      </c>
-      <c r="B235" t="s">
-        <v>159</v>
       </c>
       <c r="C235">
         <v>2018</v>
@@ -4788,12 +4788,12 @@
         <v>21382.2225807</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236" t="s">
         <v>4</v>
-      </c>
-      <c r="B236" t="s">
-        <v>5</v>
       </c>
       <c r="C236">
         <v>2019</v>
@@ -4805,12 +4805,12 @@
         <v>7588914.8880012166</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" t="s">
         <v>6</v>
-      </c>
-      <c r="B237" t="s">
-        <v>7</v>
       </c>
       <c r="C237">
         <v>2019</v>
@@ -4822,12 +4822,12 @@
         <v>8261.6332429960021</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238" t="s">
         <v>8</v>
-      </c>
-      <c r="B238" t="s">
-        <v>9</v>
       </c>
       <c r="C238">
         <v>2019</v>
@@ -4839,12 +4839,12 @@
         <v>95500.198122039961</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239" t="s">
         <v>10</v>
-      </c>
-      <c r="B239" t="s">
-        <v>11</v>
       </c>
       <c r="C239">
         <v>2019</v>
@@ -4856,12 +4856,12 @@
         <v>182.38352348000001</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
+        <v>11</v>
+      </c>
+      <c r="B240" t="s">
         <v>12</v>
-      </c>
-      <c r="B240" t="s">
-        <v>13</v>
       </c>
       <c r="C240">
         <v>2019</v>
@@ -4873,12 +4873,12 @@
         <v>130897.72934032269</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" t="s">
         <v>14</v>
-      </c>
-      <c r="B241" t="s">
-        <v>15</v>
       </c>
       <c r="C241">
         <v>2019</v>
@@ -4890,12 +4890,12 @@
         <v>40.882507999999987</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
+        <v>15</v>
+      </c>
+      <c r="B242" t="s">
         <v>16</v>
-      </c>
-      <c r="B242" t="s">
-        <v>17</v>
       </c>
       <c r="C242">
         <v>2019</v>
@@ -4907,12 +4907,12 @@
         <v>45601.842110119978</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
+        <v>17</v>
+      </c>
+      <c r="B243" t="s">
         <v>18</v>
-      </c>
-      <c r="B243" t="s">
-        <v>19</v>
       </c>
       <c r="C243">
         <v>2019</v>
@@ -4921,12 +4921,12 @@
         <v>36846.748438759991</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
+        <v>19</v>
+      </c>
+      <c r="B244" t="s">
         <v>20</v>
-      </c>
-      <c r="B244" t="s">
-        <v>21</v>
       </c>
       <c r="C244">
         <v>2019</v>
@@ -4938,12 +4938,12 @@
         <v>2825453.6868693428</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
+        <v>21</v>
+      </c>
+      <c r="B245" t="s">
         <v>22</v>
-      </c>
-      <c r="B245" t="s">
-        <v>23</v>
       </c>
       <c r="C245">
         <v>2019</v>
@@ -4955,12 +4955,12 @@
         <v>124523.183042848</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
+        <v>23</v>
+      </c>
+      <c r="B246" t="s">
         <v>24</v>
-      </c>
-      <c r="B246" t="s">
-        <v>25</v>
       </c>
       <c r="C246">
         <v>2019</v>
@@ -4972,12 +4972,12 @@
         <v>168274.88440116</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
+        <v>25</v>
+      </c>
+      <c r="B247" t="s">
         <v>26</v>
-      </c>
-      <c r="B247" t="s">
-        <v>27</v>
       </c>
       <c r="C247">
         <v>2019</v>
@@ -4989,12 +4989,12 @@
         <v>12316659.32313747</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
+        <v>27</v>
+      </c>
+      <c r="B248" t="s">
         <v>28</v>
-      </c>
-      <c r="B248" t="s">
-        <v>29</v>
       </c>
       <c r="C248">
         <v>2019</v>
@@ -5006,12 +5006,12 @@
         <v>3056962.049344047</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
+        <v>29</v>
+      </c>
+      <c r="B249" t="s">
         <v>30</v>
-      </c>
-      <c r="B249" t="s">
-        <v>31</v>
       </c>
       <c r="C249">
         <v>2019</v>
@@ -5023,12 +5023,12 @@
         <v>580637.53732595977</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
+        <v>31</v>
+      </c>
+      <c r="B250" t="s">
         <v>32</v>
-      </c>
-      <c r="B250" t="s">
-        <v>33</v>
       </c>
       <c r="C250">
         <v>2019</v>
@@ -5040,12 +5040,12 @@
         <v>50170.671545440011</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
+        <v>33</v>
+      </c>
+      <c r="B251" t="s">
         <v>34</v>
-      </c>
-      <c r="B251" t="s">
-        <v>35</v>
       </c>
       <c r="C251">
         <v>2019</v>
@@ -5057,12 +5057,12 @@
         <v>300469.85546762787</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
+        <v>35</v>
+      </c>
+      <c r="B252" t="s">
         <v>36</v>
-      </c>
-      <c r="B252" t="s">
-        <v>37</v>
       </c>
       <c r="C252">
         <v>2019</v>
@@ -5074,12 +5074,12 @@
         <v>53770.290806800003</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
+        <v>37</v>
+      </c>
+      <c r="B253" t="s">
         <v>38</v>
-      </c>
-      <c r="B253" t="s">
-        <v>39</v>
       </c>
       <c r="C253">
         <v>2019</v>
@@ -5091,12 +5091,12 @@
         <v>480774.08223091997</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
+        <v>39</v>
+      </c>
+      <c r="B254" t="s">
         <v>40</v>
-      </c>
-      <c r="B254" t="s">
-        <v>41</v>
       </c>
       <c r="C254">
         <v>2019</v>
@@ -5108,12 +5108,12 @@
         <v>4702549.865295331</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
+        <v>41</v>
+      </c>
+      <c r="B255" t="s">
         <v>42</v>
-      </c>
-      <c r="B255" t="s">
-        <v>43</v>
       </c>
       <c r="C255">
         <v>2019</v>
@@ -5125,12 +5125,12 @@
         <v>212458.65492216009</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
+        <v>43</v>
+      </c>
+      <c r="B256" t="s">
         <v>44</v>
-      </c>
-      <c r="B256" t="s">
-        <v>45</v>
       </c>
       <c r="C256">
         <v>2019</v>
@@ -5142,12 +5142,12 @@
         <v>269295.23679583479</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
+        <v>45</v>
+      </c>
+      <c r="B257" t="s">
         <v>46</v>
-      </c>
-      <c r="B257" t="s">
-        <v>47</v>
       </c>
       <c r="C257">
         <v>2019</v>
@@ -5159,12 +5159,12 @@
         <v>553000.96381947224</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
+        <v>47</v>
+      </c>
+      <c r="B258" t="s">
         <v>48</v>
-      </c>
-      <c r="B258" t="s">
-        <v>49</v>
       </c>
       <c r="C258">
         <v>2019</v>
@@ -5176,12 +5176,12 @@
         <v>13924204.299348</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
+        <v>49</v>
+      </c>
+      <c r="B259" t="s">
         <v>50</v>
-      </c>
-      <c r="B259" t="s">
-        <v>51</v>
       </c>
       <c r="C259">
         <v>2019</v>
@@ -5193,12 +5193,12 @@
         <v>554416.39991296013</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
+        <v>51</v>
+      </c>
+      <c r="B260" t="s">
         <v>52</v>
-      </c>
-      <c r="B260" t="s">
-        <v>53</v>
       </c>
       <c r="C260">
         <v>2019</v>
@@ -5210,12 +5210,12 @@
         <v>117884.16988708</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
+        <v>53</v>
+      </c>
+      <c r="B261" t="s">
         <v>54</v>
-      </c>
-      <c r="B261" t="s">
-        <v>55</v>
       </c>
       <c r="C261">
         <v>2019</v>
@@ -5227,12 +5227,12 @@
         <v>1661557.4015992591</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
+        <v>55</v>
+      </c>
+      <c r="B262" t="s">
         <v>56</v>
-      </c>
-      <c r="B262" t="s">
-        <v>57</v>
       </c>
       <c r="C262">
         <v>2019</v>
@@ -5244,12 +5244,12 @@
         <v>301413.28779416002</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
+        <v>57</v>
+      </c>
+      <c r="B263" t="s">
         <v>58</v>
-      </c>
-      <c r="B263" t="s">
-        <v>59</v>
       </c>
       <c r="C263">
         <v>2019</v>
@@ -5261,12 +5261,12 @@
         <v>1353883.239508979</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
+        <v>59</v>
+      </c>
+      <c r="B264" t="s">
         <v>60</v>
-      </c>
-      <c r="B264" t="s">
-        <v>61</v>
       </c>
       <c r="C264">
         <v>2019</v>
@@ -5278,12 +5278,12 @@
         <v>35903.515770987993</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
+        <v>61</v>
+      </c>
+      <c r="B265" t="s">
         <v>62</v>
-      </c>
-      <c r="B265" t="s">
-        <v>63</v>
       </c>
       <c r="C265">
         <v>2019</v>
@@ -5295,12 +5295,12 @@
         <v>16061.58697844</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
+        <v>63</v>
+      </c>
+      <c r="B266" t="s">
         <v>64</v>
-      </c>
-      <c r="B266" t="s">
-        <v>65</v>
       </c>
       <c r="C266">
         <v>2019</v>
@@ -5312,12 +5312,12 @@
         <v>111962.5016579341</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
+        <v>65</v>
+      </c>
+      <c r="B267" t="s">
         <v>66</v>
-      </c>
-      <c r="B267" t="s">
-        <v>67</v>
       </c>
       <c r="C267">
         <v>2019</v>
@@ -5329,12 +5329,12 @@
         <v>60262.737135624091</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
+        <v>67</v>
+      </c>
+      <c r="B268" t="s">
         <v>68</v>
-      </c>
-      <c r="B268" t="s">
-        <v>69</v>
       </c>
       <c r="C268">
         <v>2019</v>
@@ -5346,12 +5346,12 @@
         <v>613358.01547967189</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
+        <v>69</v>
+      </c>
+      <c r="B269" t="s">
         <v>70</v>
-      </c>
-      <c r="B269" t="s">
-        <v>71</v>
       </c>
       <c r="C269">
         <v>2019</v>
@@ -5363,23 +5363,23 @@
         <v>187.06124299999999</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
+        <v>71</v>
+      </c>
+      <c r="B270" t="s">
         <v>72</v>
-      </c>
-      <c r="B270" t="s">
-        <v>73</v>
       </c>
       <c r="C270">
         <v>2019</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
+        <v>73</v>
+      </c>
+      <c r="B271" t="s">
         <v>74</v>
-      </c>
-      <c r="B271" t="s">
-        <v>75</v>
       </c>
       <c r="C271">
         <v>2019</v>
@@ -5391,12 +5391,12 @@
         <v>202155.38057036471</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
+        <v>75</v>
+      </c>
+      <c r="B272" t="s">
         <v>76</v>
-      </c>
-      <c r="B272" t="s">
-        <v>77</v>
       </c>
       <c r="C272">
         <v>2019</v>
@@ -5408,12 +5408,12 @@
         <v>387.90844800000002</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
+        <v>77</v>
+      </c>
+      <c r="B273" t="s">
         <v>78</v>
-      </c>
-      <c r="B273" t="s">
-        <v>79</v>
       </c>
       <c r="C273">
         <v>2019</v>
@@ -5425,12 +5425,12 @@
         <v>223805.32215058789</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
+        <v>79</v>
+      </c>
+      <c r="B274" t="s">
         <v>80</v>
-      </c>
-      <c r="B274" t="s">
-        <v>81</v>
       </c>
       <c r="C274">
         <v>2019</v>
@@ -5442,12 +5442,12 @@
         <v>17921082.688818671</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
+        <v>81</v>
+      </c>
+      <c r="B275" t="s">
         <v>82</v>
-      </c>
-      <c r="B275" t="s">
-        <v>83</v>
       </c>
       <c r="C275">
         <v>2019</v>
@@ -5459,12 +5459,12 @@
         <v>32983466.436676402</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
+        <v>83</v>
+      </c>
+      <c r="B276" t="s">
         <v>84</v>
-      </c>
-      <c r="B276" t="s">
-        <v>85</v>
       </c>
       <c r="C276">
         <v>2019</v>
@@ -5476,12 +5476,12 @@
         <v>8869467.722647287</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
+        <v>85</v>
+      </c>
+      <c r="B277" t="s">
         <v>86</v>
-      </c>
-      <c r="B277" t="s">
-        <v>87</v>
       </c>
       <c r="C277">
         <v>2019</v>
@@ -5493,12 +5493,12 @@
         <v>48879.349197627977</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
+        <v>87</v>
+      </c>
+      <c r="B278" t="s">
         <v>88</v>
-      </c>
-      <c r="B278" t="s">
-        <v>89</v>
       </c>
       <c r="C278">
         <v>2019</v>
@@ -5510,12 +5510,12 @@
         <v>488733.80022212921</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
+        <v>89</v>
+      </c>
+      <c r="B279" t="s">
         <v>90</v>
-      </c>
-      <c r="B279" t="s">
-        <v>91</v>
       </c>
       <c r="C279">
         <v>2019</v>
@@ -5527,12 +5527,12 @@
         <v>38044.682573108723</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
+        <v>91</v>
+      </c>
+      <c r="B280" t="s">
         <v>92</v>
-      </c>
-      <c r="B280" t="s">
-        <v>93</v>
       </c>
       <c r="C280">
         <v>2019</v>
@@ -5544,12 +5544,12 @@
         <v>870.70425677031585</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
+        <v>93</v>
+      </c>
+      <c r="B281" t="s">
         <v>94</v>
-      </c>
-      <c r="B281" t="s">
-        <v>95</v>
       </c>
       <c r="C281">
         <v>2019</v>
@@ -5561,12 +5561,12 @@
         <v>31.869341120000001</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
+        <v>95</v>
+      </c>
+      <c r="B282" t="s">
         <v>96</v>
-      </c>
-      <c r="B282" t="s">
-        <v>97</v>
       </c>
       <c r="C282">
         <v>2019</v>
@@ -5578,12 +5578,12 @@
         <v>3598.2538806684001</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
+        <v>97</v>
+      </c>
+      <c r="B283" t="s">
         <v>98</v>
-      </c>
-      <c r="B283" t="s">
-        <v>99</v>
       </c>
       <c r="C283">
         <v>2019</v>
@@ -5595,12 +5595,12 @@
         <v>1491133.1936320739</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
+        <v>99</v>
+      </c>
+      <c r="B284" t="s">
         <v>100</v>
-      </c>
-      <c r="B284" t="s">
-        <v>101</v>
       </c>
       <c r="C284">
         <v>2019</v>
@@ -5612,12 +5612,12 @@
         <v>75840.339103491991</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
+        <v>101</v>
+      </c>
+      <c r="B285" t="s">
         <v>102</v>
-      </c>
-      <c r="B285" t="s">
-        <v>103</v>
       </c>
       <c r="C285">
         <v>2019</v>
@@ -5629,12 +5629,12 @@
         <v>21015.4868551</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
+        <v>103</v>
+      </c>
+      <c r="B286" t="s">
         <v>104</v>
-      </c>
-      <c r="B286" t="s">
-        <v>105</v>
       </c>
       <c r="C286">
         <v>2019</v>
@@ -5646,12 +5646,12 @@
         <v>267267.03245570062</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
+        <v>105</v>
+      </c>
+      <c r="B287" t="s">
         <v>106</v>
-      </c>
-      <c r="B287" t="s">
-        <v>107</v>
       </c>
       <c r="C287">
         <v>2019</v>
@@ -5663,12 +5663,12 @@
         <v>79399.755606509512</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
+        <v>107</v>
+      </c>
+      <c r="B288" t="s">
         <v>108</v>
-      </c>
-      <c r="B288" t="s">
-        <v>109</v>
       </c>
       <c r="C288">
         <v>2019</v>
@@ -5680,12 +5680,12 @@
         <v>17732.865902067599</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
+        <v>109</v>
+      </c>
+      <c r="B289" t="s">
         <v>110</v>
-      </c>
-      <c r="B289" t="s">
-        <v>111</v>
       </c>
       <c r="C289">
         <v>2019</v>
@@ -5697,12 +5697,12 @@
         <v>81061.372893471984</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
+        <v>111</v>
+      </c>
+      <c r="B290" t="s">
         <v>112</v>
-      </c>
-      <c r="B290" t="s">
-        <v>113</v>
       </c>
       <c r="C290">
         <v>2019</v>
@@ -5714,12 +5714,12 @@
         <v>19061.334632874801</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
+        <v>113</v>
+      </c>
+      <c r="B291" t="s">
         <v>114</v>
-      </c>
-      <c r="B291" t="s">
-        <v>115</v>
       </c>
       <c r="C291">
         <v>2019</v>
@@ -5731,12 +5731,12 @@
         <v>59302.65440276001</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
+        <v>115</v>
+      </c>
+      <c r="B292" t="s">
         <v>116</v>
-      </c>
-      <c r="B292" t="s">
-        <v>117</v>
       </c>
       <c r="C292">
         <v>2019</v>
@@ -5748,12 +5748,12 @@
         <v>226610.15426117269</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
+        <v>117</v>
+      </c>
+      <c r="B293" t="s">
         <v>118</v>
-      </c>
-      <c r="B293" t="s">
-        <v>119</v>
       </c>
       <c r="C293">
         <v>2019</v>
@@ -5765,12 +5765,12 @@
         <v>35979.279038957859</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
+        <v>119</v>
+      </c>
+      <c r="B294" t="s">
         <v>120</v>
-      </c>
-      <c r="B294" t="s">
-        <v>121</v>
       </c>
       <c r="C294">
         <v>2019</v>
@@ -5782,12 +5782,12 @@
         <v>96788.329888639986</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
+        <v>121</v>
+      </c>
+      <c r="B295" t="s">
         <v>122</v>
-      </c>
-      <c r="B295" t="s">
-        <v>123</v>
       </c>
       <c r="C295">
         <v>2019</v>
@@ -5799,12 +5799,12 @@
         <v>47841.248989495987</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
+        <v>123</v>
+      </c>
+      <c r="B296" t="s">
         <v>124</v>
-      </c>
-      <c r="B296" t="s">
-        <v>125</v>
       </c>
       <c r="C296">
         <v>2019</v>
@@ -5816,12 +5816,12 @@
         <v>829.45854951999968</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
+        <v>125</v>
+      </c>
+      <c r="B297" t="s">
         <v>126</v>
-      </c>
-      <c r="B297" t="s">
-        <v>127</v>
       </c>
       <c r="C297">
         <v>2019</v>
@@ -5833,12 +5833,12 @@
         <v>84241.178236983993</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
+        <v>127</v>
+      </c>
+      <c r="B298" t="s">
         <v>128</v>
-      </c>
-      <c r="B298" t="s">
-        <v>129</v>
       </c>
       <c r="C298">
         <v>2019</v>
@@ -5850,12 +5850,12 @@
         <v>24487.092598804211</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
+        <v>129</v>
+      </c>
+      <c r="B299" t="s">
         <v>130</v>
-      </c>
-      <c r="B299" t="s">
-        <v>131</v>
       </c>
       <c r="C299">
         <v>2019</v>
@@ -5867,12 +5867,12 @@
         <v>432337.75208705972</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
+        <v>131</v>
+      </c>
+      <c r="B300" t="s">
         <v>132</v>
-      </c>
-      <c r="B300" t="s">
-        <v>133</v>
       </c>
       <c r="C300">
         <v>2019</v>
@@ -5881,12 +5881,12 @@
         <v>25035.93449096</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
+        <v>133</v>
+      </c>
+      <c r="B301" t="s">
         <v>134</v>
-      </c>
-      <c r="B301" t="s">
-        <v>135</v>
       </c>
       <c r="C301">
         <v>2019</v>
@@ -5898,12 +5898,12 @@
         <v>6164.245541119999</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
+        <v>135</v>
+      </c>
+      <c r="B302" t="s">
         <v>136</v>
-      </c>
-      <c r="B302" t="s">
-        <v>137</v>
       </c>
       <c r="C302">
         <v>2019</v>
@@ -5915,12 +5915,12 @@
         <v>71254.02716684404</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
+        <v>137</v>
+      </c>
+      <c r="B303" t="s">
         <v>138</v>
-      </c>
-      <c r="B303" t="s">
-        <v>139</v>
       </c>
       <c r="C303">
         <v>2019</v>
@@ -5932,12 +5932,12 @@
         <v>546583.72201167641</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
+        <v>139</v>
+      </c>
+      <c r="B304" t="s">
         <v>140</v>
-      </c>
-      <c r="B304" t="s">
-        <v>141</v>
       </c>
       <c r="C304">
         <v>2019</v>
@@ -5949,12 +5949,12 @@
         <v>123410.5388286003</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
+        <v>141</v>
+      </c>
+      <c r="B305" t="s">
         <v>142</v>
-      </c>
-      <c r="B305" t="s">
-        <v>143</v>
       </c>
       <c r="C305">
         <v>2019</v>
@@ -5966,12 +5966,12 @@
         <v>30619.767529192421</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
+        <v>143</v>
+      </c>
+      <c r="B306" t="s">
         <v>144</v>
-      </c>
-      <c r="B306" t="s">
-        <v>145</v>
       </c>
       <c r="C306">
         <v>2019</v>
@@ -5983,12 +5983,12 @@
         <v>442.38057205934052</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
+        <v>145</v>
+      </c>
+      <c r="B307" t="s">
         <v>146</v>
-      </c>
-      <c r="B307" t="s">
-        <v>147</v>
       </c>
       <c r="C307">
         <v>2019</v>
@@ -5997,12 +5997,12 @@
         <v>2086.13930764</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
+        <v>147</v>
+      </c>
+      <c r="B308" t="s">
         <v>148</v>
-      </c>
-      <c r="B308" t="s">
-        <v>149</v>
       </c>
       <c r="C308">
         <v>2019</v>
@@ -6014,12 +6014,12 @@
         <v>25.87957832</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
+        <v>149</v>
+      </c>
+      <c r="B309" t="s">
         <v>150</v>
-      </c>
-      <c r="B309" t="s">
-        <v>151</v>
       </c>
       <c r="C309">
         <v>2019</v>
@@ -6031,12 +6031,12 @@
         <v>13667.16249547846</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
+        <v>151</v>
+      </c>
+      <c r="B310" t="s">
         <v>152</v>
-      </c>
-      <c r="B310" t="s">
-        <v>153</v>
       </c>
       <c r="C310">
         <v>2019</v>
@@ -6048,12 +6048,12 @@
         <v>13403.8875657551</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
+        <v>153</v>
+      </c>
+      <c r="B311" t="s">
         <v>154</v>
-      </c>
-      <c r="B311" t="s">
-        <v>155</v>
       </c>
       <c r="C311">
         <v>2019</v>
@@ -6065,12 +6065,12 @@
         <v>24.453444319999999</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
+        <v>155</v>
+      </c>
+      <c r="B312" t="s">
         <v>156</v>
-      </c>
-      <c r="B312" t="s">
-        <v>157</v>
       </c>
       <c r="C312">
         <v>2019</v>
@@ -6082,12 +6082,12 @@
         <v>5668.4529082879981</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
+        <v>157</v>
+      </c>
+      <c r="B313" t="s">
         <v>158</v>
-      </c>
-      <c r="B313" t="s">
-        <v>159</v>
       </c>
       <c r="C313">
         <v>2019</v>
@@ -6099,12 +6099,12 @@
         <v>29608.00600424</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
+        <v>3</v>
+      </c>
+      <c r="B314" t="s">
         <v>4</v>
-      </c>
-      <c r="B314" t="s">
-        <v>5</v>
       </c>
       <c r="C314">
         <v>2020</v>
@@ -6116,12 +6116,12 @@
         <v>4949152.5836578049</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" t="s">
         <v>6</v>
-      </c>
-      <c r="B315" t="s">
-        <v>7</v>
       </c>
       <c r="C315">
         <v>2020</v>
@@ -6133,12 +6133,12 @@
         <v>8459.8320137747978</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
+        <v>7</v>
+      </c>
+      <c r="B316" t="s">
         <v>8</v>
-      </c>
-      <c r="B316" t="s">
-        <v>9</v>
       </c>
       <c r="C316">
         <v>2020</v>
@@ -6150,12 +6150,12 @@
         <v>49421.423193319977</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
+        <v>9</v>
+      </c>
+      <c r="B317" t="s">
         <v>10</v>
-      </c>
-      <c r="B317" t="s">
-        <v>11</v>
       </c>
       <c r="C317">
         <v>2020</v>
@@ -6167,12 +6167,12 @@
         <v>205.347632</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
+        <v>11</v>
+      </c>
+      <c r="B318" t="s">
         <v>12</v>
-      </c>
-      <c r="B318" t="s">
-        <v>13</v>
       </c>
       <c r="C318">
         <v>2020</v>
@@ -6184,12 +6184,12 @@
         <v>137760.8829941944</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
+        <v>13</v>
+      </c>
+      <c r="B319" t="s">
         <v>14</v>
-      </c>
-      <c r="B319" t="s">
-        <v>15</v>
       </c>
       <c r="C319">
         <v>2020</v>
@@ -6198,12 +6198,12 @@
         <v>4405.7858291599996</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" t="s">
         <v>16</v>
-      </c>
-      <c r="B320" t="s">
-        <v>17</v>
       </c>
       <c r="C320">
         <v>2020</v>
@@ -6215,12 +6215,12 @@
         <v>229387.31300511671</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
+        <v>17</v>
+      </c>
+      <c r="B321" t="s">
         <v>18</v>
-      </c>
-      <c r="B321" t="s">
-        <v>19</v>
       </c>
       <c r="C321">
         <v>2020</v>
@@ -6229,12 +6229,12 @@
         <v>13075.6152368</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
+        <v>19</v>
+      </c>
+      <c r="B322" t="s">
         <v>20</v>
-      </c>
-      <c r="B322" t="s">
-        <v>21</v>
       </c>
       <c r="C322">
         <v>2020</v>
@@ -6246,12 +6246,12 @@
         <v>4505333.2337489547</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
+        <v>21</v>
+      </c>
+      <c r="B323" t="s">
         <v>22</v>
-      </c>
-      <c r="B323" t="s">
-        <v>23</v>
       </c>
       <c r="C323">
         <v>2020</v>
@@ -6263,12 +6263,12 @@
         <v>174504.59578124009</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
+        <v>23</v>
+      </c>
+      <c r="B324" t="s">
         <v>24</v>
-      </c>
-      <c r="B324" t="s">
-        <v>25</v>
       </c>
       <c r="C324">
         <v>2020</v>
@@ -6280,12 +6280,12 @@
         <v>127187.78675444009</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
+        <v>25</v>
+      </c>
+      <c r="B325" t="s">
         <v>26</v>
-      </c>
-      <c r="B325" t="s">
-        <v>27</v>
       </c>
       <c r="C325">
         <v>2020</v>
@@ -6297,12 +6297,12 @@
         <v>14782092.46253242</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
+        <v>27</v>
+      </c>
+      <c r="B326" t="s">
         <v>28</v>
-      </c>
-      <c r="B326" t="s">
-        <v>29</v>
       </c>
       <c r="C326">
         <v>2020</v>
@@ -6314,12 +6314,12 @@
         <v>4161605.4003544808</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
+        <v>29</v>
+      </c>
+      <c r="B327" t="s">
         <v>30</v>
-      </c>
-      <c r="B327" t="s">
-        <v>31</v>
       </c>
       <c r="C327">
         <v>2020</v>
@@ -6331,12 +6331,12 @@
         <v>569113.36632099969</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
+        <v>31</v>
+      </c>
+      <c r="B328" t="s">
         <v>32</v>
-      </c>
-      <c r="B328" t="s">
-        <v>33</v>
       </c>
       <c r="C328">
         <v>2020</v>
@@ -6348,12 +6348,12 @@
         <v>27957.702927680009</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
+        <v>33</v>
+      </c>
+      <c r="B329" t="s">
         <v>34</v>
-      </c>
-      <c r="B329" t="s">
-        <v>35</v>
       </c>
       <c r="C329">
         <v>2020</v>
@@ -6365,12 +6365,12 @@
         <v>434276.25455151981</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
+        <v>35</v>
+      </c>
+      <c r="B330" t="s">
         <v>36</v>
-      </c>
-      <c r="B330" t="s">
-        <v>37</v>
       </c>
       <c r="C330">
         <v>2020</v>
@@ -6382,12 +6382,12 @@
         <v>41092.303224079988</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
+        <v>37</v>
+      </c>
+      <c r="B331" t="s">
         <v>38</v>
-      </c>
-      <c r="B331" t="s">
-        <v>39</v>
       </c>
       <c r="C331">
         <v>2020</v>
@@ -6399,12 +6399,12 @@
         <v>228096.96464192</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
+        <v>39</v>
+      </c>
+      <c r="B332" t="s">
         <v>40</v>
-      </c>
-      <c r="B332" t="s">
-        <v>41</v>
       </c>
       <c r="C332">
         <v>2020</v>
@@ -6416,12 +6416,12 @@
         <v>4132559.9506949182</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
+        <v>41</v>
+      </c>
+      <c r="B333" t="s">
         <v>42</v>
-      </c>
-      <c r="B333" t="s">
-        <v>43</v>
       </c>
       <c r="C333">
         <v>2020</v>
@@ -6433,12 +6433,12 @@
         <v>326381.94646931998</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
+        <v>43</v>
+      </c>
+      <c r="B334" t="s">
         <v>44</v>
-      </c>
-      <c r="B334" t="s">
-        <v>45</v>
       </c>
       <c r="C334">
         <v>2020</v>
@@ -6450,12 +6450,12 @@
         <v>399305.36423735949</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
+        <v>45</v>
+      </c>
+      <c r="B335" t="s">
         <v>46</v>
-      </c>
-      <c r="B335" t="s">
-        <v>47</v>
       </c>
       <c r="C335">
         <v>2020</v>
@@ -6467,12 +6467,12 @@
         <v>1091936.0761468019</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
+        <v>47</v>
+      </c>
+      <c r="B336" t="s">
         <v>48</v>
-      </c>
-      <c r="B336" t="s">
-        <v>49</v>
       </c>
       <c r="C336">
         <v>2020</v>
@@ -6484,12 +6484,12 @@
         <v>15176085.33733288</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
+        <v>49</v>
+      </c>
+      <c r="B337" t="s">
         <v>50</v>
-      </c>
-      <c r="B337" t="s">
-        <v>51</v>
       </c>
       <c r="C337">
         <v>2020</v>
@@ -6501,12 +6501,12 @@
         <v>615828.81449318037</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
+        <v>51</v>
+      </c>
+      <c r="B338" t="s">
         <v>52</v>
-      </c>
-      <c r="B338" t="s">
-        <v>53</v>
       </c>
       <c r="C338">
         <v>2020</v>
@@ -6518,12 +6518,12 @@
         <v>167942.75410836001</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
+        <v>53</v>
+      </c>
+      <c r="B339" t="s">
         <v>54</v>
-      </c>
-      <c r="B339" t="s">
-        <v>55</v>
       </c>
       <c r="C339">
         <v>2020</v>
@@ -6535,12 +6535,12 @@
         <v>1118055.9754644821</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
+        <v>55</v>
+      </c>
+      <c r="B340" t="s">
         <v>56</v>
-      </c>
-      <c r="B340" t="s">
-        <v>57</v>
       </c>
       <c r="C340">
         <v>2020</v>
@@ -6552,12 +6552,12 @@
         <v>291854.15653271979</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
+        <v>57</v>
+      </c>
+      <c r="B341" t="s">
         <v>58</v>
-      </c>
-      <c r="B341" t="s">
-        <v>59</v>
       </c>
       <c r="C341">
         <v>2020</v>
@@ -6569,12 +6569,12 @@
         <v>2158640.127953338</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
+        <v>59</v>
+      </c>
+      <c r="B342" t="s">
         <v>60</v>
-      </c>
-      <c r="B342" t="s">
-        <v>61</v>
       </c>
       <c r="C342">
         <v>2020</v>
@@ -6586,12 +6586,12 @@
         <v>29834.119299680009</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
+        <v>61</v>
+      </c>
+      <c r="B343" t="s">
         <v>62</v>
-      </c>
-      <c r="B343" t="s">
-        <v>63</v>
       </c>
       <c r="C343">
         <v>2020</v>
@@ -6603,12 +6603,12 @@
         <v>32168.942829359981</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
+        <v>63</v>
+      </c>
+      <c r="B344" t="s">
         <v>64</v>
-      </c>
-      <c r="B344" t="s">
-        <v>65</v>
       </c>
       <c r="C344">
         <v>2020</v>
@@ -6620,12 +6620,12 @@
         <v>83315.799500559995</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
+        <v>65</v>
+      </c>
+      <c r="B345" t="s">
         <v>66</v>
-      </c>
-      <c r="B345" t="s">
-        <v>67</v>
       </c>
       <c r="C345">
         <v>2020</v>
@@ -6637,12 +6637,12 @@
         <v>72603.105088754382</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
+        <v>67</v>
+      </c>
+      <c r="B346" t="s">
         <v>68</v>
-      </c>
-      <c r="B346" t="s">
-        <v>69</v>
       </c>
       <c r="C346">
         <v>2020</v>
@@ -6654,12 +6654,12 @@
         <v>1427675.1657542679</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
+        <v>69</v>
+      </c>
+      <c r="B347" t="s">
         <v>70</v>
-      </c>
-      <c r="B347" t="s">
-        <v>71</v>
       </c>
       <c r="C347">
         <v>2020</v>
@@ -6668,12 +6668,12 @@
         <v>36102.250997279989</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
+        <v>71</v>
+      </c>
+      <c r="B348" t="s">
         <v>72</v>
-      </c>
-      <c r="B348" t="s">
-        <v>73</v>
       </c>
       <c r="C348">
         <v>2020</v>
@@ -6682,12 +6682,12 @@
         <v>3404.2446617599999</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
+        <v>73</v>
+      </c>
+      <c r="B349" t="s">
         <v>74</v>
-      </c>
-      <c r="B349" t="s">
-        <v>75</v>
       </c>
       <c r="C349">
         <v>2020</v>
@@ -6699,12 +6699,12 @@
         <v>237755.4347599007</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
+        <v>75</v>
+      </c>
+      <c r="B350" t="s">
         <v>76</v>
-      </c>
-      <c r="B350" t="s">
-        <v>77</v>
       </c>
       <c r="C350">
         <v>2020</v>
@@ -6713,12 +6713,12 @@
         <v>209.68507688</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
+        <v>77</v>
+      </c>
+      <c r="B351" t="s">
         <v>78</v>
-      </c>
-      <c r="B351" t="s">
-        <v>79</v>
       </c>
       <c r="C351">
         <v>2020</v>
@@ -6730,12 +6730,12 @@
         <v>693821.42495307187</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
+        <v>79</v>
+      </c>
+      <c r="B352" t="s">
         <v>80</v>
-      </c>
-      <c r="B352" t="s">
-        <v>81</v>
       </c>
       <c r="C352">
         <v>2020</v>
@@ -6747,12 +6747,12 @@
         <v>12720078.03580353</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
+        <v>81</v>
+      </c>
+      <c r="B353" t="s">
         <v>82</v>
-      </c>
-      <c r="B353" t="s">
-        <v>83</v>
       </c>
       <c r="C353">
         <v>2020</v>
@@ -6764,12 +6764,12 @@
         <v>17315916.719823241</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
+        <v>83</v>
+      </c>
+      <c r="B354" t="s">
         <v>84</v>
-      </c>
-      <c r="B354" t="s">
-        <v>85</v>
       </c>
       <c r="C354">
         <v>2020</v>
@@ -6781,12 +6781,12 @@
         <v>3929194.5044135619</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
+        <v>85</v>
+      </c>
+      <c r="B355" t="s">
         <v>86</v>
-      </c>
-      <c r="B355" t="s">
-        <v>87</v>
       </c>
       <c r="C355">
         <v>2020</v>
@@ -6798,12 +6798,12 @@
         <v>50645.879915334437</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
+        <v>87</v>
+      </c>
+      <c r="B356" t="s">
         <v>88</v>
-      </c>
-      <c r="B356" t="s">
-        <v>89</v>
       </c>
       <c r="C356">
         <v>2020</v>
@@ -6815,12 +6815,12 @@
         <v>82999.652769765613</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
+        <v>89</v>
+      </c>
+      <c r="B357" t="s">
         <v>90</v>
-      </c>
-      <c r="B357" t="s">
-        <v>91</v>
       </c>
       <c r="C357">
         <v>2020</v>
@@ -6832,12 +6832,12 @@
         <v>31786.745164929122</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
+        <v>91</v>
+      </c>
+      <c r="B358" t="s">
         <v>92</v>
-      </c>
-      <c r="B358" t="s">
-        <v>93</v>
       </c>
       <c r="C358">
         <v>2020</v>
@@ -6849,12 +6849,12 @@
         <v>50576.749307094004</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
+        <v>93</v>
+      </c>
+      <c r="B359" t="s">
         <v>94</v>
-      </c>
-      <c r="B359" t="s">
-        <v>95</v>
       </c>
       <c r="C359">
         <v>2020</v>
@@ -6866,12 +6866,12 @@
         <v>541.8663024</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
+        <v>95</v>
+      </c>
+      <c r="B360" t="s">
         <v>96</v>
-      </c>
-      <c r="B360" t="s">
-        <v>97</v>
       </c>
       <c r="C360">
         <v>2020</v>
@@ -6883,12 +6883,12 @@
         <v>7269.8150368043989</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
+        <v>97</v>
+      </c>
+      <c r="B361" t="s">
         <v>98</v>
-      </c>
-      <c r="B361" t="s">
-        <v>99</v>
       </c>
       <c r="C361">
         <v>2020</v>
@@ -6900,12 +6900,12 @@
         <v>1594888.262845885</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
+        <v>99</v>
+      </c>
+      <c r="B362" t="s">
         <v>100</v>
-      </c>
-      <c r="B362" t="s">
-        <v>101</v>
       </c>
       <c r="C362">
         <v>2020</v>
@@ -6917,12 +6917,12 @@
         <v>88599.309208868013</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
+        <v>101</v>
+      </c>
+      <c r="B363" t="s">
         <v>102</v>
-      </c>
-      <c r="B363" t="s">
-        <v>103</v>
       </c>
       <c r="C363">
         <v>2020</v>
@@ -6934,12 +6934,12 @@
         <v>14355.251577912</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
+        <v>103</v>
+      </c>
+      <c r="B364" t="s">
         <v>104</v>
-      </c>
-      <c r="B364" t="s">
-        <v>105</v>
       </c>
       <c r="C364">
         <v>2020</v>
@@ -6951,12 +6951,12 @@
         <v>212024.21749855371</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
+        <v>105</v>
+      </c>
+      <c r="B365" t="s">
         <v>106</v>
-      </c>
-      <c r="B365" t="s">
-        <v>107</v>
       </c>
       <c r="C365">
         <v>2020</v>
@@ -6968,12 +6968,12 @@
         <v>190889.86191699779</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
+        <v>107</v>
+      </c>
+      <c r="B366" t="s">
         <v>108</v>
-      </c>
-      <c r="B366" t="s">
-        <v>109</v>
       </c>
       <c r="C366">
         <v>2020</v>
@@ -6985,12 +6985,12 @@
         <v>33503.258425490392</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
+        <v>109</v>
+      </c>
+      <c r="B367" t="s">
         <v>110</v>
-      </c>
-      <c r="B367" t="s">
-        <v>111</v>
       </c>
       <c r="C367">
         <v>2020</v>
@@ -7002,12 +7002,12 @@
         <v>62778.995396544</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
+        <v>111</v>
+      </c>
+      <c r="B368" t="s">
         <v>112</v>
-      </c>
-      <c r="B368" t="s">
-        <v>113</v>
       </c>
       <c r="C368">
         <v>2020</v>
@@ -7019,12 +7019,12 @@
         <v>21237.289615311791</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
+        <v>113</v>
+      </c>
+      <c r="B369" t="s">
         <v>114</v>
-      </c>
-      <c r="B369" t="s">
-        <v>115</v>
       </c>
       <c r="C369">
         <v>2020</v>
@@ -7036,12 +7036,12 @@
         <v>38240.586813883623</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
+        <v>115</v>
+      </c>
+      <c r="B370" t="s">
         <v>116</v>
-      </c>
-      <c r="B370" t="s">
-        <v>117</v>
       </c>
       <c r="C370">
         <v>2020</v>
@@ -7053,12 +7053,12 @@
         <v>336473.72433357558</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
+        <v>117</v>
+      </c>
+      <c r="B371" t="s">
         <v>118</v>
-      </c>
-      <c r="B371" t="s">
-        <v>119</v>
       </c>
       <c r="C371">
         <v>2020</v>
@@ -7070,12 +7070,12 @@
         <v>29660.644751717791</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
+        <v>119</v>
+      </c>
+      <c r="B372" t="s">
         <v>120</v>
-      </c>
-      <c r="B372" t="s">
-        <v>121</v>
       </c>
       <c r="C372">
         <v>2020</v>
@@ -7087,12 +7087,12 @@
         <v>75096.031354986466</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
+        <v>121</v>
+      </c>
+      <c r="B373" t="s">
         <v>122</v>
-      </c>
-      <c r="B373" t="s">
-        <v>123</v>
       </c>
       <c r="C373">
         <v>2020</v>
@@ -7104,12 +7104,12 @@
         <v>13280.539601232</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
+        <v>123</v>
+      </c>
+      <c r="B374" t="s">
         <v>124</v>
-      </c>
-      <c r="B374" t="s">
-        <v>125</v>
       </c>
       <c r="C374">
         <v>2020</v>
@@ -7118,12 +7118,12 @@
         <v>11027.04211536</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
+        <v>125</v>
+      </c>
+      <c r="B375" t="s">
         <v>126</v>
-      </c>
-      <c r="B375" t="s">
-        <v>127</v>
       </c>
       <c r="C375">
         <v>2020</v>
@@ -7135,12 +7135,12 @@
         <v>34414.37329637041</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
+        <v>127</v>
+      </c>
+      <c r="B376" t="s">
         <v>128</v>
-      </c>
-      <c r="B376" t="s">
-        <v>129</v>
       </c>
       <c r="C376">
         <v>2020</v>
@@ -7152,12 +7152,12 @@
         <v>25275.238048410611</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
+        <v>129</v>
+      </c>
+      <c r="B377" t="s">
         <v>130</v>
-      </c>
-      <c r="B377" t="s">
-        <v>131</v>
       </c>
       <c r="C377">
         <v>2020</v>
@@ -7169,12 +7169,12 @@
         <v>34543.587594995843</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
+        <v>131</v>
+      </c>
+      <c r="B378" t="s">
         <v>132</v>
-      </c>
-      <c r="B378" t="s">
-        <v>133</v>
       </c>
       <c r="C378">
         <v>2020</v>
@@ -7183,12 +7183,12 @@
         <v>24157.158289999999</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
+        <v>133</v>
+      </c>
+      <c r="B379" t="s">
         <v>134</v>
-      </c>
-      <c r="B379" t="s">
-        <v>135</v>
       </c>
       <c r="C379">
         <v>2020</v>
@@ -7200,12 +7200,12 @@
         <v>191994.28409092</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
+        <v>135</v>
+      </c>
+      <c r="B380" t="s">
         <v>136</v>
-      </c>
-      <c r="B380" t="s">
-        <v>137</v>
       </c>
       <c r="C380">
         <v>2020</v>
@@ -7217,12 +7217,12 @@
         <v>31047.097416993191</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
+        <v>137</v>
+      </c>
+      <c r="B381" t="s">
         <v>138</v>
-      </c>
-      <c r="B381" t="s">
-        <v>139</v>
       </c>
       <c r="C381">
         <v>2020</v>
@@ -7234,12 +7234,12 @@
         <v>40276.226771154717</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
+        <v>139</v>
+      </c>
+      <c r="B382" t="s">
         <v>140</v>
-      </c>
-      <c r="B382" t="s">
-        <v>141</v>
       </c>
       <c r="C382">
         <v>2020</v>
@@ -7251,12 +7251,12 @@
         <v>109119.9037795335</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
+        <v>141</v>
+      </c>
+      <c r="B383" t="s">
         <v>142</v>
-      </c>
-      <c r="B383" t="s">
-        <v>143</v>
       </c>
       <c r="C383">
         <v>2020</v>
@@ -7268,12 +7268,12 @@
         <v>21553.76117149098</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
+        <v>143</v>
+      </c>
+      <c r="B384" t="s">
         <v>144</v>
-      </c>
-      <c r="B384" t="s">
-        <v>145</v>
       </c>
       <c r="C384">
         <v>2020</v>
@@ -7285,12 +7285,12 @@
         <v>131.99466554088161</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
+        <v>145</v>
+      </c>
+      <c r="B385" t="s">
         <v>146</v>
-      </c>
-      <c r="B385" t="s">
-        <v>147</v>
       </c>
       <c r="C385">
         <v>2020</v>
@@ -7299,12 +7299,12 @@
         <v>252.70331039999999</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
+        <v>147</v>
+      </c>
+      <c r="B386" t="s">
         <v>148</v>
-      </c>
-      <c r="B386" t="s">
-        <v>149</v>
       </c>
       <c r="C386">
         <v>2020</v>
@@ -7313,23 +7313,23 @@
         <v>4629.5414096000004</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
+        <v>149</v>
+      </c>
+      <c r="B387" t="s">
         <v>150</v>
-      </c>
-      <c r="B387" t="s">
-        <v>151</v>
       </c>
       <c r="C387">
         <v>2020</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
+        <v>151</v>
+      </c>
+      <c r="B388" t="s">
         <v>152</v>
-      </c>
-      <c r="B388" t="s">
-        <v>153</v>
       </c>
       <c r="C388">
         <v>2020</v>
@@ -7341,12 +7341,12 @@
         <v>4226.5362048799998</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
+        <v>153</v>
+      </c>
+      <c r="B389" t="s">
         <v>154</v>
-      </c>
-      <c r="B389" t="s">
-        <v>155</v>
       </c>
       <c r="C389">
         <v>2020</v>
@@ -7358,12 +7358,12 @@
         <v>157.03855387999999</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
+        <v>155</v>
+      </c>
+      <c r="B390" t="s">
         <v>156</v>
-      </c>
-      <c r="B390" t="s">
-        <v>157</v>
       </c>
       <c r="C390">
         <v>2020</v>
@@ -7375,12 +7375,12 @@
         <v>6180.5341694799909</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
+        <v>157</v>
+      </c>
+      <c r="B391" t="s">
         <v>158</v>
-      </c>
-      <c r="B391" t="s">
-        <v>159</v>
       </c>
       <c r="C391">
         <v>2020</v>
@@ -7392,12 +7392,12 @@
         <v>36814.201018676496</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
+        <v>3</v>
+      </c>
+      <c r="B392" t="s">
         <v>4</v>
-      </c>
-      <c r="B392" t="s">
-        <v>5</v>
       </c>
       <c r="C392">
         <v>2021</v>
@@ -7409,12 +7409,12 @@
         <v>3918389.3313174741</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
+        <v>5</v>
+      </c>
+      <c r="B393" t="s">
         <v>6</v>
-      </c>
-      <c r="B393" t="s">
-        <v>7</v>
       </c>
       <c r="C393">
         <v>2021</v>
@@ -7426,12 +7426,12 @@
         <v>6938.6492500999984</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
+        <v>7</v>
+      </c>
+      <c r="B394" t="s">
         <v>8</v>
-      </c>
-      <c r="B394" t="s">
-        <v>9</v>
       </c>
       <c r="C394">
         <v>2021</v>
@@ -7443,12 +7443,12 @@
         <v>21856.27640902</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
+        <v>9</v>
+      </c>
+      <c r="B395" t="s">
         <v>10</v>
-      </c>
-      <c r="B395" t="s">
-        <v>11</v>
       </c>
       <c r="C395">
         <v>2021</v>
@@ -7460,12 +7460,12 @@
         <v>90.982155699999993</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
+        <v>11</v>
+      </c>
+      <c r="B396" t="s">
         <v>12</v>
-      </c>
-      <c r="B396" t="s">
-        <v>13</v>
       </c>
       <c r="C396">
         <v>2021</v>
@@ -7477,12 +7477,12 @@
         <v>4243659.688181309</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
+        <v>13</v>
+      </c>
+      <c r="B397" t="s">
         <v>14</v>
-      </c>
-      <c r="B397" t="s">
-        <v>15</v>
       </c>
       <c r="C397">
         <v>2021</v>
@@ -7494,12 +7494,12 @@
         <v>5654.8092088399999</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
+        <v>15</v>
+      </c>
+      <c r="B398" t="s">
         <v>16</v>
-      </c>
-      <c r="B398" t="s">
-        <v>17</v>
       </c>
       <c r="C398">
         <v>2021</v>
@@ -7511,12 +7511,12 @@
         <v>99822.315747740038</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
+        <v>17</v>
+      </c>
+      <c r="B399" t="s">
         <v>18</v>
-      </c>
-      <c r="B399" t="s">
-        <v>19</v>
       </c>
       <c r="C399">
         <v>2021</v>
@@ -7528,12 +7528,12 @@
         <v>1128.9048539</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
+        <v>19</v>
+      </c>
+      <c r="B400" t="s">
         <v>20</v>
-      </c>
-      <c r="B400" t="s">
-        <v>21</v>
       </c>
       <c r="C400">
         <v>2021</v>
@@ -7545,12 +7545,12 @@
         <v>5531874.0511306496</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
+        <v>21</v>
+      </c>
+      <c r="B401" t="s">
         <v>22</v>
-      </c>
-      <c r="B401" t="s">
-        <v>23</v>
       </c>
       <c r="C401">
         <v>2021</v>
@@ -7562,12 +7562,12 @@
         <v>222480.09048549979</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
+        <v>23</v>
+      </c>
+      <c r="B402" t="s">
         <v>24</v>
-      </c>
-      <c r="B402" t="s">
-        <v>25</v>
       </c>
       <c r="C402">
         <v>2021</v>
@@ -7579,12 +7579,12 @@
         <v>217214.28824469991</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
+        <v>25</v>
+      </c>
+      <c r="B403" t="s">
         <v>26</v>
-      </c>
-      <c r="B403" t="s">
-        <v>27</v>
       </c>
       <c r="C403">
         <v>2021</v>
@@ -7596,12 +7596,12 @@
         <v>25347976.106662191</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
+        <v>27</v>
+      </c>
+      <c r="B404" t="s">
         <v>28</v>
-      </c>
-      <c r="B404" t="s">
-        <v>29</v>
       </c>
       <c r="C404">
         <v>2021</v>
@@ -7613,12 +7613,12 @@
         <v>6785102.8850261224</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
+        <v>29</v>
+      </c>
+      <c r="B405" t="s">
         <v>30</v>
-      </c>
-      <c r="B405" t="s">
-        <v>31</v>
       </c>
       <c r="C405">
         <v>2021</v>
@@ -7630,12 +7630,12 @@
         <v>644537.22881871997</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
+        <v>31</v>
+      </c>
+      <c r="B406" t="s">
         <v>32</v>
-      </c>
-      <c r="B406" t="s">
-        <v>33</v>
       </c>
       <c r="C406">
         <v>2021</v>
@@ -7647,12 +7647,12 @@
         <v>100566.77628845999</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
+        <v>33</v>
+      </c>
+      <c r="B407" t="s">
         <v>34</v>
-      </c>
-      <c r="B407" t="s">
-        <v>35</v>
       </c>
       <c r="C407">
         <v>2021</v>
@@ -7664,12 +7664,12 @@
         <v>575477.71935757925</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
+        <v>35</v>
+      </c>
+      <c r="B408" t="s">
         <v>36</v>
-      </c>
-      <c r="B408" t="s">
-        <v>37</v>
       </c>
       <c r="C408">
         <v>2021</v>
@@ -7681,12 +7681,12 @@
         <v>66926.237471931992</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
+        <v>37</v>
+      </c>
+      <c r="B409" t="s">
         <v>38</v>
-      </c>
-      <c r="B409" t="s">
-        <v>39</v>
       </c>
       <c r="C409">
         <v>2021</v>
@@ -7698,12 +7698,12 @@
         <v>231100.04011969999</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
+        <v>39</v>
+      </c>
+      <c r="B410" t="s">
         <v>40</v>
-      </c>
-      <c r="B410" t="s">
-        <v>41</v>
       </c>
       <c r="C410">
         <v>2021</v>
@@ -7715,12 +7715,12 @@
         <v>1985708.917398762</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
+        <v>41</v>
+      </c>
+      <c r="B411" t="s">
         <v>42</v>
-      </c>
-      <c r="B411" t="s">
-        <v>43</v>
       </c>
       <c r="C411">
         <v>2021</v>
@@ -7732,12 +7732,12 @@
         <v>367899.5739369801</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
+        <v>43</v>
+      </c>
+      <c r="B412" t="s">
         <v>44</v>
-      </c>
-      <c r="B412" t="s">
-        <v>45</v>
       </c>
       <c r="C412">
         <v>2021</v>
@@ -7749,12 +7749,12 @@
         <v>600184.71217767987</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
+        <v>45</v>
+      </c>
+      <c r="B413" t="s">
         <v>46</v>
-      </c>
-      <c r="B413" t="s">
-        <v>47</v>
       </c>
       <c r="C413">
         <v>2021</v>
@@ -7766,12 +7766,12 @@
         <v>1534619.0247508991</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
+        <v>47</v>
+      </c>
+      <c r="B414" t="s">
         <v>48</v>
-      </c>
-      <c r="B414" t="s">
-        <v>49</v>
       </c>
       <c r="C414">
         <v>2021</v>
@@ -7783,12 +7783,12 @@
         <v>19351948.643102609</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
+        <v>49</v>
+      </c>
+      <c r="B415" t="s">
         <v>50</v>
-      </c>
-      <c r="B415" t="s">
-        <v>51</v>
       </c>
       <c r="C415">
         <v>2021</v>
@@ -7800,12 +7800,12 @@
         <v>757915.67985022068</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
+        <v>51</v>
+      </c>
+      <c r="B416" t="s">
         <v>52</v>
-      </c>
-      <c r="B416" t="s">
-        <v>53</v>
       </c>
       <c r="C416">
         <v>2021</v>
@@ -7817,12 +7817,12 @@
         <v>51962.027882800001</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
+        <v>53</v>
+      </c>
+      <c r="B417" t="s">
         <v>54</v>
-      </c>
-      <c r="B417" t="s">
-        <v>55</v>
       </c>
       <c r="C417">
         <v>2021</v>
@@ -7834,12 +7834,12 @@
         <v>1738346.9804788609</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
+        <v>55</v>
+      </c>
+      <c r="B418" t="s">
         <v>56</v>
-      </c>
-      <c r="B418" t="s">
-        <v>57</v>
       </c>
       <c r="C418">
         <v>2021</v>
@@ -7851,12 +7851,12 @@
         <v>165655.44298922</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
+        <v>57</v>
+      </c>
+      <c r="B419" t="s">
         <v>58</v>
-      </c>
-      <c r="B419" t="s">
-        <v>59</v>
       </c>
       <c r="C419">
         <v>2021</v>
@@ -7868,12 +7868,12 @@
         <v>4338229.1225632718</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
+        <v>59</v>
+      </c>
+      <c r="B420" t="s">
         <v>60</v>
-      </c>
-      <c r="B420" t="s">
-        <v>61</v>
       </c>
       <c r="C420">
         <v>2021</v>
@@ -7885,12 +7885,12 @@
         <v>245778.81793228231</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
+        <v>61</v>
+      </c>
+      <c r="B421" t="s">
         <v>62</v>
-      </c>
-      <c r="B421" t="s">
-        <v>63</v>
       </c>
       <c r="C421">
         <v>2021</v>
@@ -7902,12 +7902,12 @@
         <v>82678.882490999968</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
+        <v>63</v>
+      </c>
+      <c r="B422" t="s">
         <v>64</v>
-      </c>
-      <c r="B422" t="s">
-        <v>65</v>
       </c>
       <c r="C422">
         <v>2021</v>
@@ -7919,12 +7919,12 @@
         <v>217172.06472133979</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
+        <v>65</v>
+      </c>
+      <c r="B423" t="s">
         <v>66</v>
-      </c>
-      <c r="B423" t="s">
-        <v>67</v>
       </c>
       <c r="C423">
         <v>2021</v>
@@ -7936,12 +7936,12 @@
         <v>72570.520360733412</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
+        <v>67</v>
+      </c>
+      <c r="B424" t="s">
         <v>68</v>
-      </c>
-      <c r="B424" t="s">
-        <v>69</v>
       </c>
       <c r="C424">
         <v>2021</v>
@@ -7953,12 +7953,12 @@
         <v>1067488.4172930941</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
+        <v>69</v>
+      </c>
+      <c r="B425" t="s">
         <v>70</v>
-      </c>
-      <c r="B425" t="s">
-        <v>71</v>
       </c>
       <c r="C425">
         <v>2021</v>
@@ -7967,23 +7967,23 @@
         <v>73016.209075219915</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
+        <v>71</v>
+      </c>
+      <c r="B426" t="s">
         <v>72</v>
-      </c>
-      <c r="B426" t="s">
-        <v>73</v>
       </c>
       <c r="C426">
         <v>2021</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
+        <v>73</v>
+      </c>
+      <c r="B427" t="s">
         <v>74</v>
-      </c>
-      <c r="B427" t="s">
-        <v>75</v>
       </c>
       <c r="C427">
         <v>2021</v>
@@ -7995,12 +7995,12 @@
         <v>542357.37521585973</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
+        <v>75</v>
+      </c>
+      <c r="B428" t="s">
         <v>76</v>
-      </c>
-      <c r="B428" t="s">
-        <v>77</v>
       </c>
       <c r="C428">
         <v>2021</v>
@@ -8009,12 +8009,12 @@
         <v>820.83353074000001</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
+        <v>77</v>
+      </c>
+      <c r="B429" t="s">
         <v>78</v>
-      </c>
-      <c r="B429" t="s">
-        <v>79</v>
       </c>
       <c r="C429">
         <v>2021</v>
@@ -8026,12 +8026,12 @@
         <v>364473.53525109979</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
+        <v>79</v>
+      </c>
+      <c r="B430" t="s">
         <v>80</v>
-      </c>
-      <c r="B430" t="s">
-        <v>81</v>
       </c>
       <c r="C430">
         <v>2021</v>
@@ -8043,12 +8043,12 @@
         <v>19271114.060622349</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
+        <v>81</v>
+      </c>
+      <c r="B431" t="s">
         <v>82</v>
-      </c>
-      <c r="B431" t="s">
-        <v>83</v>
       </c>
       <c r="C431">
         <v>2021</v>
@@ -8060,12 +8060,12 @@
         <v>21066912.412731901</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
+        <v>83</v>
+      </c>
+      <c r="B432" t="s">
         <v>84</v>
-      </c>
-      <c r="B432" t="s">
-        <v>85</v>
       </c>
       <c r="C432">
         <v>2021</v>
@@ -8077,12 +8077,12 @@
         <v>5363217.6449916456</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
+        <v>85</v>
+      </c>
+      <c r="B433" t="s">
         <v>86</v>
-      </c>
-      <c r="B433" t="s">
-        <v>87</v>
       </c>
       <c r="C433">
         <v>2021</v>
@@ -8094,12 +8094,12 @@
         <v>52441.975243617169</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
+        <v>87</v>
+      </c>
+      <c r="B434" t="s">
         <v>88</v>
-      </c>
-      <c r="B434" t="s">
-        <v>89</v>
       </c>
       <c r="C434">
         <v>2021</v>
@@ -8111,12 +8111,12 @@
         <v>52923.427105746683</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
+        <v>89</v>
+      </c>
+      <c r="B435" t="s">
         <v>90</v>
-      </c>
-      <c r="B435" t="s">
-        <v>91</v>
       </c>
       <c r="C435">
         <v>2021</v>
@@ -8128,12 +8128,12 @@
         <v>106393.9842840684</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
+        <v>91</v>
+      </c>
+      <c r="B436" t="s">
         <v>92</v>
-      </c>
-      <c r="B436" t="s">
-        <v>93</v>
       </c>
       <c r="C436">
         <v>2021</v>
@@ -8145,12 +8145,12 @@
         <v>4282.760694203801</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
+        <v>93</v>
+      </c>
+      <c r="B437" t="s">
         <v>94</v>
-      </c>
-      <c r="B437" t="s">
-        <v>95</v>
       </c>
       <c r="C437">
         <v>2021</v>
@@ -8162,12 +8162,12 @@
         <v>622.081684</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
+        <v>95</v>
+      </c>
+      <c r="B438" t="s">
         <v>96</v>
-      </c>
-      <c r="B438" t="s">
-        <v>97</v>
       </c>
       <c r="C438">
         <v>2021</v>
@@ -8179,12 +8179,12 @@
         <v>9789.4824911548003</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
+        <v>97</v>
+      </c>
+      <c r="B439" t="s">
         <v>98</v>
-      </c>
-      <c r="B439" t="s">
-        <v>99</v>
       </c>
       <c r="C439">
         <v>2021</v>
@@ -8196,12 +8196,12 @@
         <v>1681882.846187277</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
+        <v>99</v>
+      </c>
+      <c r="B440" t="s">
         <v>100</v>
-      </c>
-      <c r="B440" t="s">
-        <v>101</v>
       </c>
       <c r="C440">
         <v>2021</v>
@@ -8213,12 +8213,12 @@
         <v>48284.537169274387</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
+        <v>101</v>
+      </c>
+      <c r="B441" t="s">
         <v>102</v>
-      </c>
-      <c r="B441" t="s">
-        <v>103</v>
       </c>
       <c r="C441">
         <v>2021</v>
@@ -8230,12 +8230,12 @@
         <v>71737.394131772206</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
+        <v>103</v>
+      </c>
+      <c r="B442" t="s">
         <v>104</v>
-      </c>
-      <c r="B442" t="s">
-        <v>105</v>
       </c>
       <c r="C442">
         <v>2021</v>
@@ -8247,12 +8247,12 @@
         <v>294935.97448426578</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
+        <v>105</v>
+      </c>
+      <c r="B443" t="s">
         <v>106</v>
-      </c>
-      <c r="B443" t="s">
-        <v>107</v>
       </c>
       <c r="C443">
         <v>2021</v>
@@ -8264,12 +8264,12 @@
         <v>299132.11313476588</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
+        <v>107</v>
+      </c>
+      <c r="B444" t="s">
         <v>108</v>
-      </c>
-      <c r="B444" t="s">
-        <v>109</v>
       </c>
       <c r="C444">
         <v>2021</v>
@@ -8281,12 +8281,12 @@
         <v>8407.6762893375962</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
+        <v>109</v>
+      </c>
+      <c r="B445" t="s">
         <v>110</v>
-      </c>
-      <c r="B445" t="s">
-        <v>111</v>
       </c>
       <c r="C445">
         <v>2021</v>
@@ -8298,12 +8298,12 @@
         <v>95252.680784440396</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
+        <v>111</v>
+      </c>
+      <c r="B446" t="s">
         <v>112</v>
-      </c>
-      <c r="B446" t="s">
-        <v>113</v>
       </c>
       <c r="C446">
         <v>2021</v>
@@ -8315,12 +8315,12 @@
         <v>6831.6490329200024</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
+        <v>113</v>
+      </c>
+      <c r="B447" t="s">
         <v>114</v>
-      </c>
-      <c r="B447" t="s">
-        <v>115</v>
       </c>
       <c r="C447">
         <v>2021</v>
@@ -8332,12 +8332,12 @@
         <v>265672.81331599102</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
+        <v>115</v>
+      </c>
+      <c r="B448" t="s">
         <v>116</v>
-      </c>
-      <c r="B448" t="s">
-        <v>117</v>
       </c>
       <c r="C448">
         <v>2021</v>
@@ -8349,12 +8349,12 @@
         <v>449600.73917447572</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
+        <v>117</v>
+      </c>
+      <c r="B449" t="s">
         <v>118</v>
-      </c>
-      <c r="B449" t="s">
-        <v>119</v>
       </c>
       <c r="C449">
         <v>2021</v>
@@ -8366,12 +8366,12 @@
         <v>33729.026255607678</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
+        <v>119</v>
+      </c>
+      <c r="B450" t="s">
         <v>120</v>
-      </c>
-      <c r="B450" t="s">
-        <v>121</v>
       </c>
       <c r="C450">
         <v>2021</v>
@@ -8383,12 +8383,12 @@
         <v>9515.3992618973989</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
+        <v>121</v>
+      </c>
+      <c r="B451" t="s">
         <v>122</v>
-      </c>
-      <c r="B451" t="s">
-        <v>123</v>
       </c>
       <c r="C451">
         <v>2021</v>
@@ -8400,12 +8400,12 @@
         <v>14255.79293804</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
+        <v>123</v>
+      </c>
+      <c r="B452" t="s">
         <v>124</v>
-      </c>
-      <c r="B452" t="s">
-        <v>125</v>
       </c>
       <c r="C452">
         <v>2021</v>
@@ -8414,12 +8414,12 @@
         <v>7134.2256624599986</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
+        <v>125</v>
+      </c>
+      <c r="B453" t="s">
         <v>126</v>
-      </c>
-      <c r="B453" t="s">
-        <v>127</v>
       </c>
       <c r="C453">
         <v>2021</v>
@@ -8431,12 +8431,12 @@
         <v>12553.12068842</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
+        <v>127</v>
+      </c>
+      <c r="B454" t="s">
         <v>128</v>
-      </c>
-      <c r="B454" t="s">
-        <v>129</v>
       </c>
       <c r="C454">
         <v>2021</v>
@@ -8448,12 +8448,12 @@
         <v>53247.230431423879</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
+        <v>129</v>
+      </c>
+      <c r="B455" t="s">
         <v>130</v>
-      </c>
-      <c r="B455" t="s">
-        <v>131</v>
       </c>
       <c r="C455">
         <v>2021</v>
@@ -8465,12 +8465,12 @@
         <v>28492.105165973499</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
+        <v>131</v>
+      </c>
+      <c r="B456" t="s">
         <v>132</v>
-      </c>
-      <c r="B456" t="s">
-        <v>133</v>
       </c>
       <c r="C456">
         <v>2021</v>
@@ -8479,12 +8479,12 @@
         <v>17228.953231799998</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
+        <v>133</v>
+      </c>
+      <c r="B457" t="s">
         <v>134</v>
-      </c>
-      <c r="B457" t="s">
-        <v>135</v>
       </c>
       <c r="C457">
         <v>2021</v>
@@ -8496,12 +8496,12 @@
         <v>3480.0159766400002</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
+        <v>135</v>
+      </c>
+      <c r="B458" t="s">
         <v>136</v>
-      </c>
-      <c r="B458" t="s">
-        <v>137</v>
       </c>
       <c r="C458">
         <v>2021</v>
@@ -8513,12 +8513,12 @@
         <v>48583.7879702266</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
+        <v>137</v>
+      </c>
+      <c r="B459" t="s">
         <v>138</v>
-      </c>
-      <c r="B459" t="s">
-        <v>139</v>
       </c>
       <c r="C459">
         <v>2021</v>
@@ -8530,12 +8530,12 @@
         <v>62476.253518744037</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
+        <v>139</v>
+      </c>
+      <c r="B460" t="s">
         <v>140</v>
-      </c>
-      <c r="B460" t="s">
-        <v>141</v>
       </c>
       <c r="C460">
         <v>2021</v>
@@ -8547,12 +8547,12 @@
         <v>139263.0056720927</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
+        <v>141</v>
+      </c>
+      <c r="B461" t="s">
         <v>142</v>
-      </c>
-      <c r="B461" t="s">
-        <v>143</v>
       </c>
       <c r="C461">
         <v>2021</v>
@@ -8564,12 +8564,12 @@
         <v>26457.638211948419</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
+        <v>143</v>
+      </c>
+      <c r="B462" t="s">
         <v>144</v>
-      </c>
-      <c r="B462" t="s">
-        <v>145</v>
       </c>
       <c r="C462">
         <v>2021</v>
@@ -8581,12 +8581,12 @@
         <v>35.000867810770004</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
+        <v>145</v>
+      </c>
+      <c r="B463" t="s">
         <v>146</v>
-      </c>
-      <c r="B463" t="s">
-        <v>147</v>
       </c>
       <c r="C463">
         <v>2021</v>
@@ -8595,12 +8595,12 @@
         <v>475.36144292</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
+        <v>147</v>
+      </c>
+      <c r="B464" t="s">
         <v>148</v>
-      </c>
-      <c r="B464" t="s">
-        <v>149</v>
       </c>
       <c r="C464">
         <v>2021</v>
@@ -8609,12 +8609,12 @@
         <v>640.09387491999985</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
+        <v>149</v>
+      </c>
+      <c r="B465" t="s">
         <v>150</v>
-      </c>
-      <c r="B465" t="s">
-        <v>151</v>
       </c>
       <c r="C465">
         <v>2021</v>
@@ -8626,12 +8626,12 @@
         <v>1599.3984341062651</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
+        <v>151</v>
+      </c>
+      <c r="B466" t="s">
         <v>152</v>
-      </c>
-      <c r="B466" t="s">
-        <v>153</v>
       </c>
       <c r="C466">
         <v>2021</v>
@@ -8643,12 +8643,12 @@
         <v>5154.8571153800012</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
+        <v>153</v>
+      </c>
+      <c r="B467" t="s">
         <v>154</v>
-      </c>
-      <c r="B467" t="s">
-        <v>155</v>
       </c>
       <c r="C467">
         <v>2021</v>
@@ -8660,12 +8660,12 @@
         <v>248.83484113200009</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
+        <v>155</v>
+      </c>
+      <c r="B468" t="s">
         <v>156</v>
-      </c>
-      <c r="B468" t="s">
-        <v>157</v>
       </c>
       <c r="C468">
         <v>2021</v>
@@ -8677,12 +8677,12 @@
         <v>12914.0351412208</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
+        <v>157</v>
+      </c>
+      <c r="B469" t="s">
         <v>158</v>
-      </c>
-      <c r="B469" t="s">
-        <v>159</v>
       </c>
       <c r="C469">
         <v>2021</v>
